--- a/docs/BC Parks Datasets.xlsx
+++ b/docs/BC Parks Datasets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\PPAD\_Marketing &amp; Partnerships\Web\CMS Development\Data Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\bcparks.ca\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BDC26C-BE9F-4EEA-ABCE-F025A748A761}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482BA726-F77D-4C9D-BD6D-552B6D68C9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{18B4C128-B343-4925-877B-67BA878CF356}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="ArcGIS Online" sheetId="5" r:id="rId4"/>
     <sheet name="WildfireDatasets" sheetId="3" r:id="rId5"/>
     <sheet name="GitHub" sheetId="6" r:id="rId6"/>
+    <sheet name="JSON" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="306">
-  <si>
-    <t>Emergency Management BC Regions</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="386">
   <si>
     <t>RegionEMBC</t>
   </si>
@@ -187,9 +185,6 @@
     <t>Facility availability (campsites, parking, etc.)</t>
   </si>
   <si>
-    <t>Events</t>
-  </si>
-  <si>
     <t>not sure if this one is necessary</t>
   </si>
   <si>
@@ -956,6 +951,252 @@
   </si>
   <si>
     <t>original repository; migrating to /bcgov/bcparks.ca</t>
+  </si>
+  <si>
+    <t>DAG</t>
+  </si>
+  <si>
+    <t>Needs Update Before Prod</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
+    <t>BCGW</t>
+  </si>
+  <si>
+    <t>BCGNIS</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>ResourceSpace</t>
+  </si>
+  <si>
+    <t>ParkActivityXRef</t>
+  </si>
+  <si>
+    <t>ParkFacilityXRef</t>
+  </si>
+  <si>
+    <t>Migrated Count</t>
+  </si>
+  <si>
+    <t>To Be Migrated</t>
+  </si>
+  <si>
+    <t>Calendar of Events</t>
+  </si>
+  <si>
+    <t>AMSFacilities</t>
+  </si>
+  <si>
+    <t>Emergency Management BC Regions; draw from BCGW when needed</t>
+  </si>
+  <si>
+    <t>Not urgent at this time</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>https://bcparks.ca/_shared/json/</t>
+  </si>
+  <si>
+    <t>actfac.json</t>
+  </si>
+  <si>
+    <t>activity.json</t>
+  </si>
+  <si>
+    <t>bcparks-office.json</t>
+  </si>
+  <si>
+    <t>day-use-pass.json</t>
+  </si>
+  <si>
+    <t>Included in ProtectedArea</t>
+  </si>
+  <si>
+    <t>dc-places.json</t>
+  </si>
+  <si>
+    <t>facility.json</t>
+  </si>
+  <si>
+    <t>fire-centre.json</t>
+  </si>
+  <si>
+    <t>fire-zone.json</t>
+  </si>
+  <si>
+    <t>firecentre-firezone.json</t>
+  </si>
+  <si>
+    <t>no-cache.json</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>park-accessibility-facility.json</t>
+  </si>
+  <si>
+    <t>park-accessibility-feature.json</t>
+  </si>
+  <si>
+    <t>park-accessibility-photo.json</t>
+  </si>
+  <si>
+    <t>park-accessibility-survey-unit.json</t>
+  </si>
+  <si>
+    <t>park-accessibility-survey.json</t>
+  </si>
+  <si>
+    <t>park-accessibility-unit.json</t>
+  </si>
+  <si>
+    <t>park-act-fac.json</t>
+  </si>
+  <si>
+    <t>park-activity-xref.json</t>
+  </si>
+  <si>
+    <t>park-activity.json</t>
+  </si>
+  <si>
+    <t>park-dates.json</t>
+  </si>
+  <si>
+    <t>park-facility-dates.json</t>
+  </si>
+  <si>
+    <t>park-facility-xref.json</t>
+  </si>
+  <si>
+    <t>park-facility.json</t>
+  </si>
+  <si>
+    <t>park-fees.json</t>
+  </si>
+  <si>
+    <t>park-fire-centre-xref.json</t>
+  </si>
+  <si>
+    <t>park-fire-zone-xref.json</t>
+  </si>
+  <si>
+    <t>park-fog-zone-xref.json</t>
+  </si>
+  <si>
+    <t>park-reopen-detail.json</t>
+  </si>
+  <si>
+    <t>park-status.json</t>
+  </si>
+  <si>
+    <t>park-sub-area-type.json</t>
+  </si>
+  <si>
+    <t>park-sub-area.json</t>
+  </si>
+  <si>
+    <t>park.json</t>
+  </si>
+  <si>
+    <t>parks-actfac.json</t>
+  </si>
+  <si>
+    <t>parks-legal.json</t>
+  </si>
+  <si>
+    <t>parks.json</t>
+  </si>
+  <si>
+    <t>parksdc.json</t>
+  </si>
+  <si>
+    <t>photos.json</t>
+  </si>
+  <si>
+    <t>protected-lands-activity-xref.json</t>
+  </si>
+  <si>
+    <t>protected-lands-activity.json</t>
+  </si>
+  <si>
+    <t>protected-lands-details.json</t>
+  </si>
+  <si>
+    <t>protected-lands-facility-xref.json</t>
+  </si>
+  <si>
+    <t>protected-lands-facility.json</t>
+  </si>
+  <si>
+    <t>protected-lands-photos.json</t>
+  </si>
+  <si>
+    <t>protected-lands-status.json</t>
+  </si>
+  <si>
+    <t>protected-lands.json</t>
+  </si>
+  <si>
+    <t>public-advisory-xref.json</t>
+  </si>
+  <si>
+    <t>public-advisory.json</t>
+  </si>
+  <si>
+    <t>region-bcparks.json</t>
+  </si>
+  <si>
+    <t>region-tourism.json</t>
+  </si>
+  <si>
+    <t>safety-plans-park.json</t>
+  </si>
+  <si>
+    <t>safety-plans-staff.json</t>
+  </si>
+  <si>
+    <t>student-ranger-program.json</t>
+  </si>
+  <si>
+    <t>volunteer-partners.json</t>
+  </si>
+  <si>
+    <t>volunteers-photos.json</t>
+  </si>
+  <si>
+    <t>xref-park-activity.json</t>
+  </si>
+  <si>
+    <t>xref-park-embc.json</t>
+  </si>
+  <si>
+    <t>xref-park-facility.json</t>
+  </si>
+  <si>
+    <t>xref-park-fcfz.json</t>
+  </si>
+  <si>
+    <t>xref-park-region.json</t>
+  </si>
+  <si>
+    <t>xref-park-tr.json</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1310,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1082,8 +1323,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1161,21 +1408,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1183,21 +1415,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1246,6 +1463,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1254,7 +1510,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1301,9 +1557,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1313,22 +1566,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1357,7 +1604,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1367,22 +1614,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1393,6 +1637,30 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1401,7 +1669,422 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{46D87EDF-5C7C-4F52-8EA7-97C8E3BDDB87}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{BD9BD47A-6F70-4128-895D-0D50A45B4839}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="57">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1780,209 +2463,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB56F91-661F-42B6-A665-E7331567F54D}">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" style="4" customWidth="1"/>
-    <col min="2" max="4" width="9" style="3" customWidth="1"/>
-    <col min="5" max="6" width="10.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="61.1640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" customWidth="1"/>
-    <col min="12" max="12" width="137.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.83203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="61.1640625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="137" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="29" t="s">
+    <row r="1" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="C1" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="M1" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="40" t="s">
-        <v>286</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="L1" s="25" t="s">
+      <c r="N1" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="23" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P1" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="11">
         <v>44331</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="23" t="s">
+      <c r="F2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="57">
+        <v>1</v>
+      </c>
+      <c r="L2" s="57"/>
+      <c r="M2" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="19">
+        <f>IFERROR(VLOOKUP(M2,A:E,5,FALSE),"")</f>
+        <v>44331</v>
+      </c>
+      <c r="O2" s="20"/>
+      <c r="P2" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="21">
-        <f>IFERROR(VLOOKUP(I2,A:E,5,FALSE),"")</f>
-        <v>44331</v>
-      </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="B3" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="11">
         <v>44331</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="42" t="s">
+      <c r="F3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="57">
+        <v>1</v>
+      </c>
+      <c r="L3" s="57"/>
+      <c r="M3" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" s="11"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>91</v>
-      </c>
       <c r="B4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="11">
         <v>44331</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="I4" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="57">
+        <v>1</v>
+      </c>
+      <c r="L4" s="57"/>
+      <c r="M4" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="11">
         <v>44331</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="I5" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="J5" s="11">
+      <c r="F5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="57">
+        <v>1</v>
+      </c>
+      <c r="L5" s="57"/>
+      <c r="M5" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="N5" s="11">
         <v>44331</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O5" s="8"/>
+      <c r="P5" s="39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="11">
         <v>44331</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="I6" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="7">
-        <v>44351</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="42" t="s">
+      <c r="F6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="57">
+        <v>1</v>
+      </c>
+      <c r="L6" s="57"/>
+      <c r="M6" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="7">
+        <v>44358</v>
+      </c>
+      <c r="O6" s="8"/>
+      <c r="P6" s="39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="24" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1991,959 +2750,1594 @@
         <v>44331</v>
       </c>
       <c r="F7" s="11"/>
-      <c r="G7" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="J7" s="11">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="57">
+        <v>1</v>
+      </c>
+      <c r="L7" s="57"/>
+      <c r="M7" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="N7" s="11">
         <v>44331</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="42" t="s">
+      <c r="O7" s="8"/>
+      <c r="P7" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="J8" s="11">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="57">
+        <v>1</v>
+      </c>
+      <c r="L8" s="57"/>
+      <c r="M8" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="N8" s="11">
         <v>44331</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O8" s="8"/>
+      <c r="P8" s="39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="I9" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="J9" s="11">
+      <c r="F9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="57">
+        <v>1</v>
+      </c>
+      <c r="L9" s="57"/>
+      <c r="M9" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="N9" s="11">
         <v>44331</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O9" s="8"/>
+      <c r="P9" s="39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="11">
         <v>44331</v>
       </c>
       <c r="F10" s="11"/>
-      <c r="G10" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="J10" s="11">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="57">
+        <v>1</v>
+      </c>
+      <c r="L10" s="57"/>
+      <c r="M10" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="N10" s="11">
         <v>44331</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O10" s="8"/>
+      <c r="P10" s="39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L11" s="42" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>72</v>
-      </c>
       <c r="B12" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="I12" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="L12" s="42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="11"/>
+      <c r="O12" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="I13" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="7">
-        <v>44351</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="7">
+        <v>44358</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c r="P13" s="39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="I14" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="42" t="s">
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="11"/>
+      <c r="O14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>65</v>
-      </c>
       <c r="B15" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="I15" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="7">
-        <v>44351</v>
-      </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="7">
+        <v>44358</v>
+      </c>
+      <c r="O15" s="17"/>
+      <c r="P15" s="39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="11">
         <v>44331</v>
       </c>
       <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="I16" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="7">
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="57">
+        <v>1</v>
+      </c>
+      <c r="L16" s="57"/>
+      <c r="M16" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="7">
         <v>44344</v>
       </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="36" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>59</v>
+      <c r="O16" s="20"/>
+      <c r="P16" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="11">
         <v>44331</v>
       </c>
       <c r="F17" s="11"/>
-      <c r="G17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="11">
+      <c r="G17" s="11"/>
+      <c r="H17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="57">
+        <v>1</v>
+      </c>
+      <c r="L17" s="57"/>
+      <c r="M17" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" s="11">
         <v>44331</v>
       </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="42" t="s">
+      <c r="O17" s="8"/>
+      <c r="P17" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
-        <v>288</v>
-      </c>
       <c r="B18" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="E18" s="11">
         <v>44331</v>
       </c>
       <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="I18" s="20" t="s">
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="57">
+        <v>1</v>
+      </c>
+      <c r="L18" s="57"/>
+      <c r="M18" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="11">
+        <v>44331</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c r="P18" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="11">
-        <v>44331</v>
-      </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>287</v>
+    </row>
+    <row r="19" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>313</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="11">
         <v>44331</v>
       </c>
       <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="I19" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" s="11">
+      <c r="G19" s="11"/>
+      <c r="H19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="57">
+        <v>1</v>
+      </c>
+      <c r="L19" s="57"/>
+      <c r="M19" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="N19" s="11">
         <v>44331</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>55</v>
+      <c r="O19" s="8"/>
+      <c r="P19" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>286</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D20" s="9"/>
       <c r="E20" s="11">
         <v>44331</v>
       </c>
       <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="I20" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="7">
-        <v>44351</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="L20" s="42" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="72" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>52</v>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="57">
+        <v>1</v>
+      </c>
+      <c r="L20" s="57"/>
+      <c r="M20" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20" s="7">
+        <v>44358</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="P20" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>285</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D21" s="9"/>
       <c r="E21" s="11">
         <v>44331</v>
       </c>
       <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="I21" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="41" t="s">
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="57">
+        <v>1</v>
+      </c>
+      <c r="L21" s="57"/>
+      <c r="M21" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" s="11"/>
+      <c r="O21" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="P21" s="39" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="11">
+        <v>44331</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="57">
+        <v>1</v>
+      </c>
+      <c r="L22" s="57"/>
+      <c r="M22" s="54" t="s">
         <v>285</v>
       </c>
-      <c r="L21" s="42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12" t="s">
+      <c r="N22" s="11">
+        <v>44331</v>
+      </c>
+      <c r="O22" s="21"/>
+      <c r="P22" s="39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="J22" s="11">
+      <c r="B23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="11">
         <v>44331</v>
       </c>
-      <c r="K22" s="24"/>
-      <c r="L22" s="42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="I23" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" s="21">
+      <c r="F23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="57">
+        <v>1</v>
+      </c>
+      <c r="L23" s="57"/>
+      <c r="M23" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="N23" s="19">
         <v>44344</v>
       </c>
-      <c r="K23" s="22"/>
-      <c r="L23" s="42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="20"/>
+      <c r="P23" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>289</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="I24" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="21">
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="57">
+        <v>1</v>
+      </c>
+      <c r="L24" s="57"/>
+      <c r="M24" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" s="19">
         <v>44344</v>
       </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="9"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="7">
-        <v>44351</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="J25" s="21">
+      <c r="D25" s="9"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="57">
+        <v>1</v>
+      </c>
+      <c r="L25" s="57"/>
+      <c r="M25" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" s="19">
         <v>44344</v>
       </c>
-      <c r="K25" s="18"/>
-      <c r="L25" s="42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="O25" s="17"/>
+      <c r="P25" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="9"/>
+        <v>287</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="D26" s="9"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="57">
+        <v>1</v>
+      </c>
+      <c r="L26" s="57"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="39" t="s">
         <v>40</v>
       </c>
+    </row>
+    <row r="27" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="51"/>
+      <c r="C27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="7">
+        <v>44358</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57">
+        <v>1</v>
+      </c>
+      <c r="M27" s="55"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="C28" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="D28" s="9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="7">
-        <v>44351</v>
-      </c>
-      <c r="K28" s="18"/>
-      <c r="L28" s="42" t="s">
+      <c r="G28" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57">
+        <v>1</v>
+      </c>
+      <c r="M28" s="56" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="N28" s="7">
+        <v>44358</v>
+      </c>
+      <c r="O28" s="17"/>
+      <c r="P28" s="39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="51"/>
+      <c r="C29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="9"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
-      <c r="I29" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="J29" s="21"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G29" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57">
+        <v>1</v>
+      </c>
+      <c r="M29" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="N29" s="7"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57">
+        <v>1</v>
+      </c>
+      <c r="M30" s="55"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="C31" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="D31" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57">
+        <v>1</v>
+      </c>
+      <c r="M31" s="54"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
+      <c r="C32" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="D32" s="9" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="42" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="24" x14ac:dyDescent="0.2">
+      <c r="G32" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57">
+        <v>1</v>
+      </c>
+      <c r="M32" s="56"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
+      <c r="D33" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>24</v>
+      <c r="G33" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="1"/>
+      <c r="N33"/>
+    </row>
+    <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="50" t="s">
+        <v>29</v>
       </c>
       <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="C34" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="D34" s="9" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
-        <v>23</v>
+      <c r="G34" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="24" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
+      <c r="G35" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="51"/>
+      <c r="C36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="G36" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="51"/>
+      <c r="C37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="9"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="G37" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="51"/>
+      <c r="C38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="9"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
+      <c r="G38" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="51"/>
+      <c r="C39" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="D39" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="1:7" ht="24" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
+      <c r="G39" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="51"/>
+      <c r="C40" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="D40" s="9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="24" x14ac:dyDescent="0.2">
+      <c r="G40" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="12" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
+      <c r="G41" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="24" x14ac:dyDescent="0.2">
+      <c r="A42" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="24" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
+      <c r="C44" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="D44" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
-        <v>7</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="8"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="8"/>
+      <c r="C46" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46" s="57"/>
+      <c r="L46" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="57"/>
+      <c r="L47" s="57"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="7">
-        <v>44344</v>
-      </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="6" t="s">
+      <c r="B48" s="51" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
+      <c r="C48" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="D48" s="8"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="57"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="7">
+        <v>44344</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K49" s="57">
+        <v>1</v>
+      </c>
+      <c r="L49" s="57"/>
+    </row>
+    <row r="50" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="1">
+        <f>SUM($K$2:$K51)</f>
+        <v>21</v>
+      </c>
+      <c r="L52" s="1">
+        <f>SUM($L$2:$L51)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="5"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="5"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="5"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="5"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="5"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="3"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B26:F43 B25:D25 B2:F24 B44:C44 E44:F44">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="IP">
+  <conditionalFormatting sqref="E46:I46 B27:B46 H28:I42 B2:I16 B18:I18 B20:I26 D28:F42 D27 D43:I45">
+    <cfRule type="containsText" dxfId="1" priority="55" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="0" priority="56" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",B47)))</formula>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="containsText" dxfId="56" priority="51" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",D49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",B47)))</formula>
+    <cfRule type="containsText" dxfId="55" priority="52" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="containsText" dxfId="52" priority="49" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="50" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",D46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:G17">
+    <cfRule type="containsText" dxfId="50" priority="47" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",B17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="48" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",B17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="containsText" dxfId="48" priority="45" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",H17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",H17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:G19">
+    <cfRule type="containsText" dxfId="46" priority="43" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",B19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="44" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",B19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="containsText" dxfId="44" priority="41" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",H19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="42" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",H19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43 C45 C41 C35 C33 C30">
+    <cfRule type="containsText" dxfId="42" priority="39" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",C30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",C30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="containsText" dxfId="40" priority="37" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",C48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",C48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="containsText" dxfId="38" priority="35" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",C46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="36" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",C46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="containsText" dxfId="36" priority="33" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",C44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",C44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="containsText" dxfId="34" priority="31" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",C42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",C42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="containsText" dxfId="32" priority="29" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",C40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",C40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",C39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",C39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="containsText" dxfId="28" priority="25" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",C38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",C38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",C37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="24" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",C37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",C36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",C36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",C34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",C34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",C32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",C32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",C31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",C31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",C29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",C29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",C28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",C28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",C27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",C27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",C49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",C49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",B49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",B49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",B48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",B48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",D44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",D44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2962,379 +4356,379 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51" style="30" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="41.1640625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="62.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.33203125" style="30"/>
+    <col min="1" max="1" width="51" style="27" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="41.1640625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="62.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.33203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="C1" s="36" t="s">
+    <row r="1" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="B1" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="C1" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="F1" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="36" t="s">
+      <c r="D1" s="33" t="s">
         <v>202</v>
       </c>
+      <c r="E1" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="E2" s="32" t="s">
+      <c r="A2" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="C2" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" s="32" t="s">
+      <c r="A3" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="B3" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="C3" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="D3" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="33" t="s">
+      <c r="A4" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="C4" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="D4" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="D5" s="33" t="s">
+      <c r="A5" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="C5" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
+      <c r="D5" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" s="32" t="s">
+      <c r="A6" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="C6" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" s="33" t="s">
+      <c r="A7" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="C7" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="D7" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="34" t="s">
+      <c r="A8" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="C8" s="31" t="s">
         <v>175</v>
       </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="33" t="s">
+      <c r="A9" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="C9" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="D9" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="34" t="s">
+      <c r="A10" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="34" t="s">
+      <c r="B10" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="G10" s="32"/>
+      <c r="C10" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="33" t="s">
+      <c r="A11" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="C11" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="D11" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="G11" s="32"/>
+      <c r="E11" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="33" t="s">
+      <c r="A12" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="C12" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="D12" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="33" t="s">
+      <c r="A13" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="C13" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="D13" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="33" t="s">
+      <c r="A14" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="C14" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="D14" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="33" t="s">
+      <c r="A15" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="C15" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="D15" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" s="33" t="s">
+      <c r="A16" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="C16" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="D16" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="32" t="s">
+      <c r="A17" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="B17" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="C17" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="D17" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="32" t="s">
+      <c r="A18" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="B18" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="C18" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="D18" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="G19" s="32"/>
+      <c r="A19" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="G19" s="29"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E34" s="31"/>
+      <c r="E34" s="28"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
+      <c r="A37" s="28"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3381,7 +4775,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3391,51 +4785,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="36" t="s">
+      <c r="A1" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="30" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3466,80 +4860,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>101</v>
+      <c r="A1" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="32"/>
+      <c r="A2" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="32"/>
+      <c r="A3" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="32"/>
+      <c r="A4" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="32"/>
+      <c r="A5" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>108</v>
       </c>
+      <c r="B6" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33" t="s">
-        <v>106</v>
+      <c r="A7" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="32"/>
+      <c r="A8" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3566,796 +4960,796 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="119" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="117.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="119" style="39"/>
+    <col min="1" max="1" width="39.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="117.1640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="119" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="A1" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="41">
+        <v>10</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="41">
+        <v>50</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="41">
+        <v>50</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="41">
+        <v>7</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="41">
+        <v>75</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="41">
+        <v>75</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" s="41">
+        <v>90</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="41">
+        <v>19</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="41">
+        <v>19</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="41">
+        <v>1</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="41">
+        <v>38</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="41">
+        <v>4000</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="43" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+    </row>
+    <row r="18" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" s="45">
+        <v>38</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="45">
+        <v>75</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D21" s="45">
+        <v>75</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" s="45">
+        <v>75</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="D23" s="45">
+        <v>1</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="45">
+        <v>38</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="45">
+        <v>4000</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="45">
+        <v>19</v>
+      </c>
+      <c r="E26" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="44" t="s">
+    </row>
+    <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="45">
+        <v>19</v>
+      </c>
+      <c r="E27" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="C2" s="44" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+    </row>
+    <row r="31" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="B31" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="C31" s="40" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="45" t="s">
+      <c r="D31" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="45">
+        <v>38</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D33" s="45">
+        <v>75</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="D34" s="45">
+        <v>1</v>
+      </c>
+      <c r="E34" s="45" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" s="45">
+        <v>38</v>
+      </c>
+      <c r="E35" s="45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" s="45">
+        <v>4000</v>
+      </c>
+      <c r="E36" s="45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37" s="45">
+        <v>19</v>
+      </c>
+      <c r="E37" s="45" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38" s="45">
+        <v>19</v>
+      </c>
+      <c r="E38" s="45" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+    </row>
+    <row r="42" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" s="45">
+        <v>10</v>
+      </c>
+      <c r="E43" s="45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D44" s="45">
+        <v>50</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="D45" s="45">
+        <v>7</v>
+      </c>
+      <c r="E45" s="45" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D46" s="45">
+        <v>75</v>
+      </c>
+      <c r="E46" s="45" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D47" s="45">
+        <v>75</v>
+      </c>
+      <c r="E47" s="45" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D48" s="45">
+        <v>90</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D49" s="45">
+        <v>19</v>
+      </c>
+      <c r="E49" s="45" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50" s="45">
+        <v>19</v>
+      </c>
+      <c r="E50" s="45" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="D51" s="45">
+        <v>1</v>
+      </c>
+      <c r="E51" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="45">
-        <v>10</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="D4" s="45">
-        <v>50</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
-        <v>277</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="D5" s="45">
-        <v>50</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>234</v>
-      </c>
-      <c r="D6" s="45">
-        <v>7</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="D7" s="45">
-        <v>75</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="D8" s="45">
-        <v>75</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="D9" s="45">
-        <v>90</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" s="45">
-        <v>19</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" s="45">
-        <v>19</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="D12" s="45">
-        <v>1</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="D13" s="45">
+    </row>
+    <row r="52" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="B52" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D52" s="45">
         <v>38</v>
       </c>
-      <c r="E13" s="45" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A14" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45" t="s">
+      <c r="E52" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="D14" s="45">
+    </row>
+    <row r="53" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="45">
         <v>4000</v>
       </c>
-      <c r="E14" s="45" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="43" t="s">
-        <v>271</v>
-      </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-    </row>
-    <row r="18" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="E18" s="44" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="D19" s="49">
-        <v>38</v>
-      </c>
-      <c r="E19" s="49" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>255</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>224</v>
-      </c>
-      <c r="D20" s="49">
-        <v>75</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>265</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>224</v>
-      </c>
-      <c r="D21" s="49">
-        <v>75</v>
-      </c>
-      <c r="E21" s="49" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>262</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>224</v>
-      </c>
-      <c r="D22" s="49">
-        <v>75</v>
-      </c>
-      <c r="E22" s="49" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>215</v>
-      </c>
-      <c r="D23" s="49">
-        <v>1</v>
-      </c>
-      <c r="E23" s="49" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="D24" s="49">
-        <v>38</v>
-      </c>
-      <c r="E24" s="49" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="D25" s="49">
-        <v>4000</v>
-      </c>
-      <c r="E25" s="49" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>249</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="D26" s="49">
-        <v>19</v>
-      </c>
-      <c r="E26" s="49" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="49" t="s">
-        <v>219</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="D27" s="49">
-        <v>19</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="47" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="43" t="s">
-        <v>260</v>
-      </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-    </row>
-    <row r="31" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="B31" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="D31" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="E31" s="44" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="B32" s="49" t="s">
-        <v>258</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="D32" s="49">
-        <v>38</v>
-      </c>
-      <c r="E32" s="49" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="B33" s="49" t="s">
-        <v>255</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>224</v>
-      </c>
-      <c r="D33" s="49">
-        <v>75</v>
-      </c>
-      <c r="E33" s="49" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="B34" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>215</v>
-      </c>
-      <c r="D34" s="49">
-        <v>1</v>
-      </c>
-      <c r="E34" s="49" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="B35" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="D35" s="49">
-        <v>38</v>
-      </c>
-      <c r="E35" s="49" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="D36" s="49">
-        <v>4000</v>
-      </c>
-      <c r="E36" s="49" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="B37" s="49" t="s">
-        <v>249</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="D37" s="49">
-        <v>19</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="49" t="s">
-        <v>219</v>
-      </c>
-      <c r="B38" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="D38" s="49">
-        <v>19</v>
-      </c>
-      <c r="E38" s="49" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="47" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-    </row>
-    <row r="42" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="B42" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="C42" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="D42" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="E42" s="44" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="B43" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="C43" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="D43" s="49">
-        <v>10</v>
-      </c>
-      <c r="E43" s="49" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="B44" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="C44" s="49" t="s">
-        <v>224</v>
-      </c>
-      <c r="D44" s="49">
-        <v>50</v>
-      </c>
-      <c r="E44" s="49" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="B45" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="D45" s="49">
-        <v>7</v>
-      </c>
-      <c r="E45" s="49" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="B46" s="49" t="s">
-        <v>231</v>
-      </c>
-      <c r="C46" s="49" t="s">
-        <v>224</v>
-      </c>
-      <c r="D46" s="49">
-        <v>75</v>
-      </c>
-      <c r="E46" s="49" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="B47" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="C47" s="49" t="s">
-        <v>224</v>
-      </c>
-      <c r="D47" s="49">
-        <v>75</v>
-      </c>
-      <c r="E47" s="49" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="B48" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="C48" s="49" t="s">
-        <v>224</v>
-      </c>
-      <c r="D48" s="49">
-        <v>90</v>
-      </c>
-      <c r="E48" s="49" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="B49" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="C49" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="D49" s="49">
-        <v>19</v>
-      </c>
-      <c r="E49" s="49" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="49" t="s">
-        <v>219</v>
-      </c>
-      <c r="B50" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="C50" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="D50" s="49">
-        <v>19</v>
-      </c>
-      <c r="E50" s="49" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="B51" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="C51" s="49" t="s">
-        <v>215</v>
-      </c>
-      <c r="D51" s="49">
-        <v>1</v>
-      </c>
-      <c r="E51" s="49" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="B52" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="C52" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="D52" s="49">
-        <v>38</v>
-      </c>
-      <c r="E52" s="49" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="B53" s="49"/>
-      <c r="C53" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="D53" s="49">
-        <v>4000</v>
-      </c>
-      <c r="E53" s="49" t="s">
-        <v>208</v>
+      <c r="E53" s="45" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
+      <c r="A54" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4390,67 +5784,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" s="31"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" s="31"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" s="31"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="53" t="s">
-        <v>301</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="D2" s="34"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="D3" s="34"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="D4" s="34"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="B5" s="34" t="s">
+      <c r="D5" s="31" t="s">
         <v>303</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -4462,4 +5856,712 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E419D0F2-458F-41B6-A695-345743DAC448}">
+  <dimension ref="A1:E61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B13" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B16" t="s">
+        <v>340</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B17" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18" t="s">
+        <v>342</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B19" t="s">
+        <v>343</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B20" t="s">
+        <v>344</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B21" t="s">
+        <v>345</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B22" t="s">
+        <v>346</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B23" t="s">
+        <v>347</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B24" t="s">
+        <v>348</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B25" t="s">
+        <v>349</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B26" t="s">
+        <v>350</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B28" t="s">
+        <v>352</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B30" t="s">
+        <v>354</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B31" t="s">
+        <v>355</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B32" t="s">
+        <v>356</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B33" t="s">
+        <v>357</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B34" t="s">
+        <v>358</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B35" t="s">
+        <v>359</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B36" t="s">
+        <v>360</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B37" t="s">
+        <v>361</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B38" t="s">
+        <v>362</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B39" t="s">
+        <v>363</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B41" t="s">
+        <v>365</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B42" t="s">
+        <v>366</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B43" t="s">
+        <v>367</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B44" t="s">
+        <v>368</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B45" t="s">
+        <v>369</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B46" t="s">
+        <v>370</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B47" t="s">
+        <v>371</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B48" t="s">
+        <v>372</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B49" t="s">
+        <v>373</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B50" t="s">
+        <v>374</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B51" t="s">
+        <v>375</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B52" t="s">
+        <v>376</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B53" t="s">
+        <v>377</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B54" t="s">
+        <v>378</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B55" t="s">
+        <v>379</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B56" t="s">
+        <v>380</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B57" t="s">
+        <v>381</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B58" t="s">
+        <v>382</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B59" t="s">
+        <v>383</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B60" t="s">
+        <v>384</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B61" t="s">
+        <v>385</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:D1048576">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{E7796292-B5A3-4D7C-8F25-DA2AF597E685}"/>
+    <hyperlink ref="A3:A61" r:id="rId2" display="https://bcparks.ca/_shared/json/" xr:uid="{FDB1D04E-547B-4994-B2BC-9F07343BD43B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+</worksheet>
 </file>
--- a/docs/BC Parks Datasets.xlsx
+++ b/docs/BC Parks Datasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\bcparks.ca\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482BA726-F77D-4C9D-BD6D-552B6D68C9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48F2F40-6E1A-4E8F-B21F-5A7281D0164E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{18B4C128-B343-4925-877B-67BA878CF356}"/>
+    <workbookView xWindow="-120" yWindow="-16200" windowWidth="25440" windowHeight="15540" xr2:uid="{18B4C128-B343-4925-877B-67BA878CF356}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasets" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="387">
   <si>
     <t>RegionEMBC</t>
   </si>
@@ -1197,6 +1197,9 @@
   </si>
   <si>
     <t>xref-park-tr.json</t>
+  </si>
+  <si>
+    <t>ParkOperators</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1333,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1502,6 +1505,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1510,7 +1524,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1646,9 +1660,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1661,6 +1672,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1669,21 +1686,11 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{46D87EDF-5C7C-4F52-8EA7-97C8E3BDDB87}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{BD9BD47A-6F70-4128-895D-0D50A45B4839}"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="55">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1701,13 +1708,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2463,32 +2463,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB56F91-661F-42B6-A665-E7331567F54D}">
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.83203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.83203125" style="3" customWidth="1"/>
     <col min="10" max="10" width="61.1640625" style="2" customWidth="1"/>
-    <col min="11" max="12" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="39" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="137" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>101</v>
       </c>
@@ -2565,11 +2565,13 @@
       <c r="J2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="K2" s="57">
+      <c r="K2" s="56">
         <v>1</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="55" t="s">
+      <c r="L2" s="58">
+        <v>1</v>
+      </c>
+      <c r="M2" s="54" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="19">
@@ -2608,11 +2610,13 @@
       <c r="J3" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="K3" s="57">
+      <c r="K3" s="56">
         <v>1</v>
       </c>
-      <c r="L3" s="57"/>
-      <c r="M3" s="54" t="s">
+      <c r="L3" s="58">
+        <v>1</v>
+      </c>
+      <c r="M3" s="53" t="s">
         <v>88</v>
       </c>
       <c r="N3" s="11"/>
@@ -2646,11 +2650,13 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="57">
+      <c r="K4" s="56">
         <v>1</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="54" t="s">
+      <c r="L4" s="58">
+        <v>1</v>
+      </c>
+      <c r="M4" s="53" t="s">
         <v>43</v>
       </c>
       <c r="N4" s="11"/>
@@ -2684,11 +2690,13 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="57">
+      <c r="K5" s="56">
         <v>1</v>
       </c>
-      <c r="L5" s="57"/>
-      <c r="M5" s="54" t="s">
+      <c r="L5" s="58">
+        <v>1</v>
+      </c>
+      <c r="M5" s="53" t="s">
         <v>286</v>
       </c>
       <c r="N5" s="11">
@@ -2724,11 +2732,13 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="57">
+      <c r="K6" s="56">
         <v>1</v>
       </c>
-      <c r="L6" s="57"/>
-      <c r="M6" s="54" t="s">
+      <c r="L6" s="58">
+        <v>1</v>
+      </c>
+      <c r="M6" s="53" t="s">
         <v>35</v>
       </c>
       <c r="N6" s="7">
@@ -2756,11 +2766,13 @@
       <c r="J7" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="57">
+      <c r="K7" s="56">
         <v>1</v>
       </c>
-      <c r="L7" s="57"/>
-      <c r="M7" s="54" t="s">
+      <c r="L7" s="58">
+        <v>1</v>
+      </c>
+      <c r="M7" s="53" t="s">
         <v>285</v>
       </c>
       <c r="N7" s="11">
@@ -2786,11 +2798,13 @@
       <c r="J8" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="57">
+      <c r="K8" s="56">
         <v>1</v>
       </c>
-      <c r="L8" s="57"/>
-      <c r="M8" s="54" t="s">
+      <c r="L8" s="58">
+        <v>1</v>
+      </c>
+      <c r="M8" s="53" t="s">
         <v>285</v>
       </c>
       <c r="N8" s="11">
@@ -2818,11 +2832,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="57">
+      <c r="K9" s="56">
         <v>1</v>
       </c>
-      <c r="L9" s="57"/>
-      <c r="M9" s="54" t="s">
+      <c r="L9" s="58">
+        <v>1</v>
+      </c>
+      <c r="M9" s="53" t="s">
         <v>285</v>
       </c>
       <c r="N9" s="11">
@@ -2858,11 +2874,13 @@
       <c r="J10" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="K10" s="57">
+      <c r="K10" s="56">
         <v>1</v>
       </c>
-      <c r="L10" s="57"/>
-      <c r="M10" s="54" t="s">
+      <c r="L10" s="58">
+        <v>1</v>
+      </c>
+      <c r="M10" s="53" t="s">
         <v>286</v>
       </c>
       <c r="N10" s="11">
@@ -2888,9 +2906,9 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="54"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="53"/>
       <c r="N11" s="11"/>
       <c r="O11" s="8" t="s">
         <v>69</v>
@@ -2914,9 +2932,9 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="12"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="54" t="s">
+      <c r="K12" s="56"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="53" t="s">
         <v>13</v>
       </c>
       <c r="N12" s="11"/>
@@ -2942,9 +2960,9 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="54" t="s">
+      <c r="K13" s="56"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="53" t="s">
         <v>35</v>
       </c>
       <c r="N13" s="7">
@@ -2970,9 +2988,9 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="54" t="s">
+      <c r="K14" s="56"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="53" t="s">
         <v>15</v>
       </c>
       <c r="N14" s="11"/>
@@ -2998,9 +3016,9 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="56" t="s">
+      <c r="K15" s="56"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="55" t="s">
         <v>35</v>
       </c>
       <c r="N15" s="7">
@@ -3032,11 +3050,13 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="57">
+      <c r="K16" s="56">
         <v>1</v>
       </c>
-      <c r="L16" s="57"/>
-      <c r="M16" s="55" t="s">
+      <c r="L16" s="58">
+        <v>1</v>
+      </c>
+      <c r="M16" s="54" t="s">
         <v>3</v>
       </c>
       <c r="N16" s="7">
@@ -3066,11 +3086,13 @@
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="57">
+      <c r="K17" s="56">
         <v>1</v>
       </c>
-      <c r="L17" s="57"/>
-      <c r="M17" s="54" t="s">
+      <c r="L17" s="58">
+        <v>1</v>
+      </c>
+      <c r="M17" s="53" t="s">
         <v>52</v>
       </c>
       <c r="N17" s="11">
@@ -3104,11 +3126,13 @@
       <c r="J18" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="K18" s="57">
+      <c r="K18" s="56">
         <v>1</v>
       </c>
-      <c r="L18" s="57"/>
-      <c r="M18" s="54" t="s">
+      <c r="L18" s="58">
+        <v>1</v>
+      </c>
+      <c r="M18" s="53" t="s">
         <v>52</v>
       </c>
       <c r="N18" s="11">
@@ -3138,11 +3162,13 @@
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="57">
+      <c r="K19" s="56">
         <v>1</v>
       </c>
-      <c r="L19" s="57"/>
-      <c r="M19" s="54" t="s">
+      <c r="L19" s="58">
+        <v>1</v>
+      </c>
+      <c r="M19" s="53" t="s">
         <v>52</v>
       </c>
       <c r="N19" s="11">
@@ -3172,11 +3198,13 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="57">
+      <c r="K20" s="56">
         <v>1</v>
       </c>
-      <c r="L20" s="57"/>
-      <c r="M20" s="54" t="s">
+      <c r="L20" s="58">
+        <v>1</v>
+      </c>
+      <c r="M20" s="53" t="s">
         <v>35</v>
       </c>
       <c r="N20" s="7">
@@ -3208,11 +3236,13 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="57">
+      <c r="K21" s="56">
         <v>1</v>
       </c>
-      <c r="L21" s="57"/>
-      <c r="M21" s="54" t="s">
+      <c r="L21" s="58">
+        <v>1</v>
+      </c>
+      <c r="M21" s="53" t="s">
         <v>13</v>
       </c>
       <c r="N21" s="11"/>
@@ -3248,11 +3278,13 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="57">
+      <c r="K22" s="56">
         <v>1</v>
       </c>
-      <c r="L22" s="57"/>
-      <c r="M22" s="54" t="s">
+      <c r="L22" s="58">
+        <v>1</v>
+      </c>
+      <c r="M22" s="53" t="s">
         <v>285</v>
       </c>
       <c r="N22" s="11">
@@ -3288,11 +3320,13 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="57">
+      <c r="K23" s="56">
         <v>1</v>
       </c>
-      <c r="L23" s="57"/>
-      <c r="M23" s="54" t="s">
+      <c r="L23" s="58">
+        <v>1</v>
+      </c>
+      <c r="M23" s="53" t="s">
         <v>285</v>
       </c>
       <c r="N23" s="19">
@@ -3320,11 +3354,13 @@
       <c r="J24" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="K24" s="57">
+      <c r="K24" s="56">
         <v>1</v>
       </c>
-      <c r="L24" s="57"/>
-      <c r="M24" s="55" t="s">
+      <c r="L24" s="58">
+        <v>1</v>
+      </c>
+      <c r="M24" s="54" t="s">
         <v>6</v>
       </c>
       <c r="N24" s="19">
@@ -3350,11 +3386,13 @@
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="12"/>
-      <c r="K25" s="57">
+      <c r="K25" s="56">
         <v>1</v>
       </c>
-      <c r="L25" s="57"/>
-      <c r="M25" s="54" t="s">
+      <c r="L25" s="58">
+        <v>1</v>
+      </c>
+      <c r="M25" s="53" t="s">
         <v>6</v>
       </c>
       <c r="N25" s="19">
@@ -3380,11 +3418,13 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="12"/>
-      <c r="K26" s="57">
+      <c r="K26" s="56">
         <v>1</v>
       </c>
-      <c r="L26" s="57"/>
-      <c r="M26" s="56"/>
+      <c r="L26" s="58">
+        <v>1</v>
+      </c>
+      <c r="M26" s="55"/>
       <c r="N26" s="19"/>
       <c r="O26" s="20"/>
       <c r="P26" s="39" t="s">
@@ -3414,11 +3454,11 @@
       <c r="J27" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57">
+      <c r="K27" s="56"/>
+      <c r="L27" s="58">
         <v>1</v>
       </c>
-      <c r="M27" s="55"/>
+      <c r="M27" s="54"/>
       <c r="N27" s="11"/>
       <c r="O27" s="8"/>
       <c r="P27" s="39" t="s">
@@ -3444,11 +3484,9 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="12"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57">
-        <v>1</v>
-      </c>
-      <c r="M28" s="56" t="s">
+      <c r="K28" s="56"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="55" t="s">
         <v>35</v>
       </c>
       <c r="N28" s="7">
@@ -3476,11 +3514,11 @@
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="12"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57">
+      <c r="K29" s="56"/>
+      <c r="L29" s="58">
         <v>1</v>
       </c>
-      <c r="M29" s="55" t="s">
+      <c r="M29" s="54" t="s">
         <v>6</v>
       </c>
       <c r="N29" s="7"/>
@@ -3508,11 +3546,9 @@
       <c r="J30" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57">
-        <v>1</v>
-      </c>
-      <c r="M30" s="55"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="54"/>
       <c r="N30" s="11"/>
       <c r="O30" s="8"/>
       <c r="P30" s="39" t="s">
@@ -3538,11 +3574,11 @@
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="12"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57">
+      <c r="K31" s="56"/>
+      <c r="L31" s="58">
         <v>1</v>
       </c>
-      <c r="M31" s="54"/>
+      <c r="M31" s="53"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
       <c r="P31" s="39" t="s">
@@ -3568,11 +3604,11 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" s="12"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57">
+      <c r="K32" s="56"/>
+      <c r="L32" s="58">
         <v>1</v>
       </c>
-      <c r="M32" s="56"/>
+      <c r="M32" s="55"/>
       <c r="N32" s="14"/>
       <c r="O32" s="15"/>
       <c r="P32" s="39" t="s">
@@ -3596,8 +3632,8 @@
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
       <c r="J33" s="12"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="58"/>
       <c r="M33" s="1"/>
       <c r="N33"/>
     </row>
@@ -3620,8 +3656,8 @@
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="12"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57">
+      <c r="K34" s="56"/>
+      <c r="L34" s="58">
         <v>1</v>
       </c>
     </row>
@@ -3642,8 +3678,8 @@
       <c r="J35" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57">
+      <c r="K35" s="56"/>
+      <c r="L35" s="58">
         <v>1</v>
       </c>
     </row>
@@ -3666,8 +3702,8 @@
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="12"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57">
+      <c r="K36" s="56"/>
+      <c r="L36" s="58">
         <v>1</v>
       </c>
     </row>
@@ -3688,8 +3724,8 @@
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="12"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57">
+      <c r="K37" s="56"/>
+      <c r="L37" s="58">
         <v>1</v>
       </c>
     </row>
@@ -3710,8 +3746,8 @@
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
       <c r="J38" s="12"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57">
+      <c r="K38" s="56"/>
+      <c r="L38" s="58">
         <v>1</v>
       </c>
     </row>
@@ -3736,8 +3772,10 @@
       <c r="J39" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="58">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="50" t="s">
@@ -3760,8 +3798,8 @@
       <c r="J40" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57">
+      <c r="K40" s="56"/>
+      <c r="L40" s="58">
         <v>1</v>
       </c>
     </row>
@@ -3782,10 +3820,8 @@
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
       <c r="J41" s="12"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57">
-        <v>1</v>
-      </c>
+      <c r="K41" s="56"/>
+      <c r="L41" s="58"/>
     </row>
     <row r="42" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A42" s="50" t="s">
@@ -3812,8 +3848,8 @@
       <c r="J42" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57">
+      <c r="K42" s="56"/>
+      <c r="L42" s="58">
         <v>1</v>
       </c>
     </row>
@@ -3834,8 +3870,8 @@
       <c r="J43" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="58"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
@@ -3856,8 +3892,8 @@
       <c r="J44" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57">
+      <c r="K44" s="56"/>
+      <c r="L44" s="58">
         <v>1</v>
       </c>
     </row>
@@ -3874,8 +3910,8 @@
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="6"/>
-      <c r="K45" s="57"/>
-      <c r="L45" s="57">
+      <c r="K45" s="56"/>
+      <c r="L45" s="58">
         <v>1</v>
       </c>
     </row>
@@ -3898,8 +3934,8 @@
       <c r="J46" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57">
+      <c r="K46" s="56"/>
+      <c r="L46" s="58">
         <v>1</v>
       </c>
     </row>
@@ -3918,8 +3954,10 @@
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="6"/>
-      <c r="K47" s="57"/>
-      <c r="L47" s="57"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="58">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
@@ -3938,8 +3976,10 @@
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="57"/>
-      <c r="L48" s="57"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="58">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
@@ -3964,10 +4004,12 @@
       <c r="J49" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K49" s="57">
+      <c r="K49" s="56">
         <v>1</v>
       </c>
-      <c r="L49" s="57"/>
+      <c r="L49" s="58">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
@@ -3984,12 +4026,12 @@
       <c r="J50" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="58"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>317</v>
+        <v>386</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -3999,29 +4041,27 @@
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="6" t="s">
+      <c r="J51" s="6"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="58"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="1">
-        <f>SUM($K$2:$K51)</f>
-        <v>21</v>
-      </c>
-      <c r="L52" s="1">
-        <f>SUM($L$2:$L51)</f>
-        <v>17</v>
-      </c>
+      <c r="K52" s="56"/>
+      <c r="L52" s="58"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
@@ -4032,6 +4072,14 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="5"/>
+      <c r="K53" s="1">
+        <f>SUM($K$2:$K52)</f>
+        <v>21</v>
+      </c>
+      <c r="L53" s="1">
+        <f>SUM(L2:L52)</f>
+        <v>38</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
@@ -4052,6 +4100,10 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="5"/>
+      <c r="K55" s="1">
+        <f>K53/L53*100</f>
+        <v>55.26315789473685</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
@@ -4123,220 +4175,230 @@
       <c r="I62" s="4"/>
       <c r="J62" s="5"/>
     </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="5"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E46:I46 B27:B46 H28:I42 B2:I16 B18:I18 B20:I26 D28:F42 D27 D43:I45">
-    <cfRule type="containsText" dxfId="1" priority="55" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="56" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="53" priority="56" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="containsText" dxfId="56" priority="51" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",D49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="52" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",D49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="containsText" dxfId="52" priority="49" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",D46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="50" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",D46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:G17">
-    <cfRule type="containsText" dxfId="50" priority="47" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",B17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="48" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",B17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="containsText" dxfId="48" priority="45" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="46" priority="45" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",H17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",H17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:G19">
-    <cfRule type="containsText" dxfId="46" priority="43" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",B19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="44" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="44" priority="41" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",H19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="42" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",H19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43 C45 C41 C35 C33 C30">
-    <cfRule type="containsText" dxfId="42" priority="39" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",C30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="containsText" dxfId="40" priority="37" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",C48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="containsText" dxfId="38" priority="35" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",C46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="36" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="containsText" dxfId="36" priority="33" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",C44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="containsText" dxfId="34" priority="31" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",C42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",C42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="containsText" dxfId="32" priority="29" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",C40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",C39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="containsText" dxfId="28" priority="25" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",C38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",C37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="24" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",C36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",C34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",C32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",C31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",C29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",C29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",C28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",C28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",C27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",C49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",C49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",B49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",B49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",B48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",B48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4351,7 +4413,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4969,13 +5031,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
     </row>
     <row r="2" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -5202,13 +5264,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
     </row>
     <row r="18" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
@@ -5384,13 +5446,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="57" t="s">
         <v>258</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
     </row>
     <row r="31" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
@@ -5532,13 +5594,13 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
     </row>
     <row r="42" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="40" t="s">
@@ -5863,8 +5925,8 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5989,6 +6051,9 @@
       <c r="B10" t="s">
         <v>333</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
@@ -6163,7 +6228,7 @@
         <v>350</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -6174,7 +6239,7 @@
         <v>351</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -6185,7 +6250,7 @@
         <v>352</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -6262,7 +6327,7 @@
         <v>359</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -6526,7 +6591,7 @@
         <v>383</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -6537,7 +6602,7 @@
         <v>384</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -6553,7 +6618,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:D1048576">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/BC Parks Datasets.xlsx
+++ b/docs/BC Parks Datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\bcparks.ca\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48F2F40-6E1A-4E8F-B21F-5A7281D0164E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900E78C6-6767-4B22-8E71-C590D41561C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16200" windowWidth="25440" windowHeight="15540" xr2:uid="{18B4C128-B343-4925-877B-67BA878CF356}"/>
   </bookViews>
@@ -1672,10 +1672,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2467,7 +2467,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2475,7 +2475,7 @@
     <col min="1" max="1" width="25" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="5.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="5.83203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.83203125" style="3" customWidth="1"/>
@@ -2568,7 +2568,7 @@
       <c r="K2" s="56">
         <v>1</v>
       </c>
-      <c r="L2" s="58">
+      <c r="L2" s="57">
         <v>1</v>
       </c>
       <c r="M2" s="54" t="s">
@@ -2613,7 +2613,7 @@
       <c r="K3" s="56">
         <v>1</v>
       </c>
-      <c r="L3" s="58">
+      <c r="L3" s="57">
         <v>1</v>
       </c>
       <c r="M3" s="53" t="s">
@@ -2653,7 +2653,7 @@
       <c r="K4" s="56">
         <v>1</v>
       </c>
-      <c r="L4" s="58">
+      <c r="L4" s="57">
         <v>1</v>
       </c>
       <c r="M4" s="53" t="s">
@@ -2693,7 +2693,7 @@
       <c r="K5" s="56">
         <v>1</v>
       </c>
-      <c r="L5" s="58">
+      <c r="L5" s="57">
         <v>1</v>
       </c>
       <c r="M5" s="53" t="s">
@@ -2735,7 +2735,7 @@
       <c r="K6" s="56">
         <v>1</v>
       </c>
-      <c r="L6" s="58">
+      <c r="L6" s="57">
         <v>1</v>
       </c>
       <c r="M6" s="53" t="s">
@@ -2769,7 +2769,7 @@
       <c r="K7" s="56">
         <v>1</v>
       </c>
-      <c r="L7" s="58">
+      <c r="L7" s="57">
         <v>1</v>
       </c>
       <c r="M7" s="53" t="s">
@@ -2801,7 +2801,7 @@
       <c r="K8" s="56">
         <v>1</v>
       </c>
-      <c r="L8" s="58">
+      <c r="L8" s="57">
         <v>1</v>
       </c>
       <c r="M8" s="53" t="s">
@@ -2835,7 +2835,7 @@
       <c r="K9" s="56">
         <v>1</v>
       </c>
-      <c r="L9" s="58">
+      <c r="L9" s="57">
         <v>1</v>
       </c>
       <c r="M9" s="53" t="s">
@@ -2877,7 +2877,7 @@
       <c r="K10" s="56">
         <v>1</v>
       </c>
-      <c r="L10" s="58">
+      <c r="L10" s="57">
         <v>1</v>
       </c>
       <c r="M10" s="53" t="s">
@@ -2907,7 +2907,7 @@
       <c r="I11" s="11"/>
       <c r="J11" s="12"/>
       <c r="K11" s="56"/>
-      <c r="L11" s="58"/>
+      <c r="L11" s="57"/>
       <c r="M11" s="53"/>
       <c r="N11" s="11"/>
       <c r="O11" s="8" t="s">
@@ -2933,7 +2933,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="12"/>
       <c r="K12" s="56"/>
-      <c r="L12" s="58"/>
+      <c r="L12" s="57"/>
       <c r="M12" s="53" t="s">
         <v>13</v>
       </c>
@@ -2961,7 +2961,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="12"/>
       <c r="K13" s="56"/>
-      <c r="L13" s="58"/>
+      <c r="L13" s="57"/>
       <c r="M13" s="53" t="s">
         <v>35</v>
       </c>
@@ -2989,7 +2989,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="12"/>
       <c r="K14" s="56"/>
-      <c r="L14" s="58"/>
+      <c r="L14" s="57"/>
       <c r="M14" s="53" t="s">
         <v>15</v>
       </c>
@@ -3017,7 +3017,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="12"/>
       <c r="K15" s="56"/>
-      <c r="L15" s="58"/>
+      <c r="L15" s="57"/>
       <c r="M15" s="55" t="s">
         <v>35</v>
       </c>
@@ -3053,7 +3053,7 @@
       <c r="K16" s="56">
         <v>1</v>
       </c>
-      <c r="L16" s="58">
+      <c r="L16" s="57">
         <v>1</v>
       </c>
       <c r="M16" s="54" t="s">
@@ -3089,7 +3089,7 @@
       <c r="K17" s="56">
         <v>1</v>
       </c>
-      <c r="L17" s="58">
+      <c r="L17" s="57">
         <v>1</v>
       </c>
       <c r="M17" s="53" t="s">
@@ -3129,7 +3129,7 @@
       <c r="K18" s="56">
         <v>1</v>
       </c>
-      <c r="L18" s="58">
+      <c r="L18" s="57">
         <v>1</v>
       </c>
       <c r="M18" s="53" t="s">
@@ -3165,7 +3165,7 @@
       <c r="K19" s="56">
         <v>1</v>
       </c>
-      <c r="L19" s="58">
+      <c r="L19" s="57">
         <v>1</v>
       </c>
       <c r="M19" s="53" t="s">
@@ -3201,7 +3201,7 @@
       <c r="K20" s="56">
         <v>1</v>
       </c>
-      <c r="L20" s="58">
+      <c r="L20" s="57">
         <v>1</v>
       </c>
       <c r="M20" s="53" t="s">
@@ -3239,7 +3239,7 @@
       <c r="K21" s="56">
         <v>1</v>
       </c>
-      <c r="L21" s="58">
+      <c r="L21" s="57">
         <v>1</v>
       </c>
       <c r="M21" s="53" t="s">
@@ -3281,7 +3281,7 @@
       <c r="K22" s="56">
         <v>1</v>
       </c>
-      <c r="L22" s="58">
+      <c r="L22" s="57">
         <v>1</v>
       </c>
       <c r="M22" s="53" t="s">
@@ -3323,7 +3323,7 @@
       <c r="K23" s="56">
         <v>1</v>
       </c>
-      <c r="L23" s="58">
+      <c r="L23" s="57">
         <v>1</v>
       </c>
       <c r="M23" s="53" t="s">
@@ -3357,7 +3357,7 @@
       <c r="K24" s="56">
         <v>1</v>
       </c>
-      <c r="L24" s="58">
+      <c r="L24" s="57">
         <v>1</v>
       </c>
       <c r="M24" s="54" t="s">
@@ -3389,7 +3389,7 @@
       <c r="K25" s="56">
         <v>1</v>
       </c>
-      <c r="L25" s="58">
+      <c r="L25" s="57">
         <v>1</v>
       </c>
       <c r="M25" s="53" t="s">
@@ -3421,7 +3421,7 @@
       <c r="K26" s="56">
         <v>1</v>
       </c>
-      <c r="L26" s="58">
+      <c r="L26" s="57">
         <v>1</v>
       </c>
       <c r="M26" s="55"/>
@@ -3455,7 +3455,7 @@
         <v>45</v>
       </c>
       <c r="K27" s="56"/>
-      <c r="L27" s="58">
+      <c r="L27" s="57">
         <v>1</v>
       </c>
       <c r="M27" s="54"/>
@@ -3485,7 +3485,7 @@
       <c r="I28" s="11"/>
       <c r="J28" s="12"/>
       <c r="K28" s="56"/>
-      <c r="L28" s="58"/>
+      <c r="L28" s="57"/>
       <c r="M28" s="55" t="s">
         <v>35</v>
       </c>
@@ -3515,7 +3515,7 @@
       <c r="I29" s="11"/>
       <c r="J29" s="12"/>
       <c r="K29" s="56"/>
-      <c r="L29" s="58">
+      <c r="L29" s="57">
         <v>1</v>
       </c>
       <c r="M29" s="54" t="s">
@@ -3547,7 +3547,7 @@
         <v>38</v>
       </c>
       <c r="K30" s="56"/>
-      <c r="L30" s="58"/>
+      <c r="L30" s="57"/>
       <c r="M30" s="54"/>
       <c r="N30" s="11"/>
       <c r="O30" s="8"/>
@@ -3575,7 +3575,7 @@
       <c r="I31" s="11"/>
       <c r="J31" s="12"/>
       <c r="K31" s="56"/>
-      <c r="L31" s="58">
+      <c r="L31" s="57">
         <v>1</v>
       </c>
       <c r="M31" s="53"/>
@@ -3605,7 +3605,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="12"/>
       <c r="K32" s="56"/>
-      <c r="L32" s="58">
+      <c r="L32" s="57">
         <v>1</v>
       </c>
       <c r="M32" s="55"/>
@@ -3633,7 +3633,7 @@
       <c r="I33" s="11"/>
       <c r="J33" s="12"/>
       <c r="K33" s="56"/>
-      <c r="L33" s="58"/>
+      <c r="L33" s="57"/>
       <c r="M33" s="1"/>
       <c r="N33"/>
     </row>
@@ -3657,7 +3657,7 @@
       <c r="I34" s="11"/>
       <c r="J34" s="12"/>
       <c r="K34" s="56"/>
-      <c r="L34" s="58">
+      <c r="L34" s="57">
         <v>1</v>
       </c>
     </row>
@@ -3679,7 +3679,7 @@
         <v>25</v>
       </c>
       <c r="K35" s="56"/>
-      <c r="L35" s="58">
+      <c r="L35" s="57">
         <v>1</v>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
       <c r="I36" s="11"/>
       <c r="J36" s="12"/>
       <c r="K36" s="56"/>
-      <c r="L36" s="58">
+      <c r="L36" s="57">
         <v>1</v>
       </c>
     </row>
@@ -3725,7 +3725,7 @@
       <c r="I37" s="11"/>
       <c r="J37" s="12"/>
       <c r="K37" s="56"/>
-      <c r="L37" s="58">
+      <c r="L37" s="57">
         <v>1</v>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       <c r="I38" s="11"/>
       <c r="J38" s="12"/>
       <c r="K38" s="56"/>
-      <c r="L38" s="58">
+      <c r="L38" s="57">
         <v>1</v>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
         <v>19</v>
       </c>
       <c r="K39" s="56"/>
-      <c r="L39" s="58">
+      <c r="L39" s="57">
         <v>1</v>
       </c>
     </row>
@@ -3799,7 +3799,7 @@
         <v>17</v>
       </c>
       <c r="K40" s="56"/>
-      <c r="L40" s="58">
+      <c r="L40" s="57">
         <v>1</v>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
       <c r="I41" s="11"/>
       <c r="J41" s="12"/>
       <c r="K41" s="56"/>
-      <c r="L41" s="58"/>
+      <c r="L41" s="57"/>
     </row>
     <row r="42" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A42" s="50" t="s">
@@ -3849,7 +3849,7 @@
         <v>14</v>
       </c>
       <c r="K42" s="56"/>
-      <c r="L42" s="58">
+      <c r="L42" s="57">
         <v>1</v>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
         <v>283</v>
       </c>
       <c r="K43" s="56"/>
-      <c r="L43" s="58"/>
+      <c r="L43" s="57"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
@@ -3893,7 +3893,7 @@
         <v>11</v>
       </c>
       <c r="K44" s="56"/>
-      <c r="L44" s="58">
+      <c r="L44" s="57">
         <v>1</v>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       <c r="I45" s="7"/>
       <c r="J45" s="6"/>
       <c r="K45" s="56"/>
-      <c r="L45" s="58">
+      <c r="L45" s="57">
         <v>1</v>
       </c>
     </row>
@@ -3935,7 +3935,7 @@
         <v>7</v>
       </c>
       <c r="K46" s="56"/>
-      <c r="L46" s="58">
+      <c r="L46" s="57">
         <v>1</v>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
       <c r="I47" s="7"/>
       <c r="J47" s="6"/>
       <c r="K47" s="56"/>
-      <c r="L47" s="58">
+      <c r="L47" s="57">
         <v>1</v>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       <c r="I48" s="7"/>
       <c r="J48" s="6"/>
       <c r="K48" s="56"/>
-      <c r="L48" s="58">
+      <c r="L48" s="57">
         <v>1</v>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
       <c r="K49" s="56">
         <v>1</v>
       </c>
-      <c r="L49" s="58">
+      <c r="L49" s="57">
         <v>1</v>
       </c>
     </row>
@@ -4027,7 +4027,7 @@
         <v>318</v>
       </c>
       <c r="K50" s="56"/>
-      <c r="L50" s="58"/>
+      <c r="L50" s="57"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
@@ -4043,7 +4043,7 @@
       <c r="I51" s="7"/>
       <c r="J51" s="6"/>
       <c r="K51" s="56"/>
-      <c r="L51" s="58"/>
+      <c r="L51" s="57"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
@@ -4061,7 +4061,7 @@
         <v>319</v>
       </c>
       <c r="K52" s="56"/>
-      <c r="L52" s="58"/>
+      <c r="L52" s="57"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
@@ -5031,13 +5031,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -5264,13 +5264,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="58" t="s">
         <v>269</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
     </row>
     <row r="18" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
@@ -5446,13 +5446,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
     </row>
     <row r="31" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
@@ -5594,13 +5594,13 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="57" t="s">
+      <c r="A41" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
     </row>
     <row r="42" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="40" t="s">

--- a/docs/BC Parks Datasets.xlsx
+++ b/docs/BC Parks Datasets.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\bcparks.ca\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900E78C6-6767-4B22-8E71-C590D41561C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5191C3-275A-4B92-99EA-671011783EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16200" windowWidth="25440" windowHeight="15540" xr2:uid="{18B4C128-B343-4925-877B-67BA878CF356}"/>
   </bookViews>
@@ -1524,7 +1524,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1677,6 +1677,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2463,11 +2466,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB56F91-661F-42B6-A665-E7331567F54D}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3940,7 +3944,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B47" s="9"/>
@@ -4409,6 +4413,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0431B7A2-E522-4260-92BF-E7619809AD3B}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4834,6 +4839,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4EABE2-C50A-4D03-9536-25617A158ADD}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4908,6 +4914,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F25844-7967-44FB-93A5-72FA0CC1620D}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5014,6 +5021,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A387640-AE1F-4ED1-88F0-2E6AAB378BE5}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5832,6 +5840,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93154698-3716-4ED5-94DB-E99FEE875E8A}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5922,6 +5931,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E419D0F2-458F-41B6-A695-345743DAC448}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/docs/BC Parks Datasets.xlsx
+++ b/docs/BC Parks Datasets.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\bcparks.ca\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5191C3-275A-4B92-99EA-671011783EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996C84B2-9B02-4F89-9449-1B764028836A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16200" windowWidth="25440" windowHeight="15540" xr2:uid="{18B4C128-B343-4925-877B-67BA878CF356}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{18B4C128-B343-4925-877B-67BA878CF356}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasets" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="387">
-  <si>
-    <t>RegionEMBC</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="395">
   <si>
     <t>A view created from PublicAdvisories + ProtectedArea</t>
   </si>
@@ -1200,6 +1197,33 @@
   </si>
   <si>
     <t>ParkOperators</t>
+  </si>
+  <si>
+    <t>DrinkingWaterReports</t>
+  </si>
+  <si>
+    <t>Trails</t>
+  </si>
+  <si>
+    <t>Does not yet exist</t>
+  </si>
+  <si>
+    <t>EMBC Region Park XRef</t>
+  </si>
+  <si>
+    <t>EMBCRegions</t>
+  </si>
+  <si>
+    <t>RegionalDistricts</t>
+  </si>
+  <si>
+    <t>RegionalDistrictParkXRef</t>
+  </si>
+  <si>
+    <t>TourismRegions</t>
+  </si>
+  <si>
+    <t>TourismRegionParkXRef</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1548,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1677,9 +1701,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2466,26 +2487,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB56F91-661F-42B6-A665-E7331567F54D}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P63"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.83203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="61.1640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.83203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="61.1640625" style="2" customWidth="1"/>
     <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="39" bestFit="1" customWidth="1"/>
@@ -2494,1916 +2514,2002 @@
   <sheetData>
     <row r="1" spans="1:16" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="L1" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="37" t="s">
-        <v>304</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="J1" s="25" t="s">
+      <c r="M1" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>97</v>
-      </c>
       <c r="N1" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="O1" s="23" t="s">
-        <v>96</v>
-      </c>
       <c r="P1" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="56">
+        <v>1</v>
+      </c>
+      <c r="C2" s="57">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="11">
+        <v>44331</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="11">
-        <v>44331</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" s="56">
-        <v>1</v>
-      </c>
-      <c r="L2" s="57">
-        <v>1</v>
-      </c>
       <c r="M2" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="N2" s="19">
-        <f>IFERROR(VLOOKUP(M2,A:E,5,FALSE),"")</f>
-        <v>44331</v>
+        <v>90</v>
+      </c>
+      <c r="N2" s="19" t="str">
+        <f>IFERROR(VLOOKUP(M2,A:G,5,FALSE),"")</f>
+        <v>Y</v>
       </c>
       <c r="O2" s="20"/>
       <c r="P2" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>9</v>
+        <v>92</v>
+      </c>
+      <c r="B3" s="56">
+        <v>1</v>
+      </c>
+      <c r="C3" s="57">
+        <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="11">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="11">
         <v>44331</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="K3" s="56">
-        <v>1</v>
-      </c>
-      <c r="L3" s="57">
-        <v>1</v>
+      <c r="H3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="M3" s="53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="8"/>
       <c r="P3" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>9</v>
+        <v>88</v>
+      </c>
+      <c r="B4" s="56">
+        <v>1</v>
+      </c>
+      <c r="C4" s="57">
+        <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="11">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="11">
         <v>44331</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="56">
-        <v>1</v>
-      </c>
-      <c r="L4" s="57">
-        <v>1</v>
-      </c>
+      <c r="H4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="12"/>
       <c r="M4" s="53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="8"/>
       <c r="P4" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>9</v>
+        <v>85</v>
+      </c>
+      <c r="B5" s="56">
+        <v>1</v>
+      </c>
+      <c r="C5" s="57">
+        <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="11">
+        <v>8</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="11">
         <v>44331</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="56">
-        <v>1</v>
-      </c>
-      <c r="L5" s="57">
-        <v>1</v>
-      </c>
+      <c r="H5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
       <c r="M5" s="53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N5" s="11">
         <v>44331</v>
       </c>
       <c r="O5" s="8"/>
       <c r="P5" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>9</v>
+        <v>83</v>
+      </c>
+      <c r="B6" s="56">
+        <v>1</v>
+      </c>
+      <c r="C6" s="57">
+        <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="11">
+        <v>8</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="11">
         <v>44331</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="56">
-        <v>1</v>
-      </c>
-      <c r="L6" s="57">
-        <v>1</v>
-      </c>
+      <c r="H6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="12"/>
       <c r="M6" s="53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="7">
         <v>44358</v>
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="24" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="B7" s="56">
+        <v>1</v>
+      </c>
+      <c r="C7" s="57">
+        <v>1</v>
+      </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="11">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="11">
         <v>44331</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" s="56">
-        <v>1</v>
-      </c>
-      <c r="L7" s="57">
-        <v>1</v>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="M7" s="53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N7" s="11">
         <v>44331</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="B8" s="56">
+        <v>1</v>
+      </c>
+      <c r="C8" s="57">
+        <v>1</v>
+      </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="56">
-        <v>1</v>
-      </c>
-      <c r="L8" s="57">
-        <v>1</v>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="M8" s="53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N8" s="11">
         <v>44331</v>
       </c>
       <c r="O8" s="8"/>
       <c r="P8" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="B9" s="56">
+        <v>1</v>
+      </c>
+      <c r="C9" s="57">
+        <v>1</v>
+      </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="56">
-        <v>1</v>
-      </c>
-      <c r="L9" s="57">
-        <v>1</v>
-      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="12"/>
       <c r="M9" s="53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N9" s="11">
         <v>44331</v>
       </c>
       <c r="O9" s="8"/>
       <c r="P9" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>9</v>
+        <v>51</v>
+      </c>
+      <c r="B10" s="56">
+        <v>1</v>
+      </c>
+      <c r="C10" s="57">
+        <v>1</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="11">
+        <v>8</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="11">
         <v>44331</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="K10" s="56">
-        <v>1</v>
-      </c>
-      <c r="L10" s="57">
-        <v>1</v>
+      <c r="J10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="M10" s="53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N10" s="11">
         <v>44331</v>
       </c>
       <c r="O10" s="8"/>
       <c r="P10" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="57"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
       <c r="M11" s="53"/>
       <c r="N11" s="11"/>
       <c r="O11" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P11" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+        <v>69</v>
+      </c>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="57"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12"/>
       <c r="M12" s="53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N12" s="11"/>
       <c r="O12" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P12" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="57"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
       <c r="M13" s="53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N13" s="7">
         <v>44358</v>
       </c>
       <c r="O13" s="8"/>
       <c r="P13" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="57"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="12"/>
       <c r="M14" s="53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P14" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+        <v>62</v>
+      </c>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="57"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="12"/>
       <c r="M15" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N15" s="7">
         <v>44358</v>
       </c>
       <c r="O15" s="17"/>
       <c r="P15" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>9</v>
+        <v>59</v>
+      </c>
+      <c r="B16" s="56">
+        <v>1</v>
+      </c>
+      <c r="C16" s="57">
+        <v>1</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="11">
+        <v>8</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="11">
         <v>44331</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="56">
-        <v>1</v>
-      </c>
-      <c r="L16" s="57">
-        <v>1</v>
-      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="12"/>
       <c r="M16" s="54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
         <v>44344</v>
       </c>
       <c r="O16" s="20"/>
       <c r="P16" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="11">
+        <v>311</v>
+      </c>
+      <c r="B17" s="56">
+        <v>1</v>
+      </c>
+      <c r="C17" s="57">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="11">
         <v>44331</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="56">
-        <v>1</v>
-      </c>
-      <c r="L17" s="57">
-        <v>1</v>
-      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
       <c r="M17" s="53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N17" s="11">
         <v>44331</v>
       </c>
       <c r="O17" s="8"/>
       <c r="P17" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>9</v>
+        <v>56</v>
+      </c>
+      <c r="B18" s="56">
+        <v>1</v>
+      </c>
+      <c r="C18" s="57">
+        <v>1</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="11">
+        <v>8</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="11">
         <v>44331</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="56">
-        <v>1</v>
-      </c>
-      <c r="L18" s="57">
-        <v>1</v>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="M18" s="53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N18" s="11">
         <v>44331</v>
       </c>
       <c r="O18" s="8"/>
       <c r="P18" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="11">
+        <v>312</v>
+      </c>
+      <c r="B19" s="56">
+        <v>1</v>
+      </c>
+      <c r="C19" s="57">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="11">
         <v>44331</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="56">
-        <v>1</v>
-      </c>
-      <c r="L19" s="57">
-        <v>1</v>
-      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
       <c r="M19" s="53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N19" s="11">
         <v>44331</v>
       </c>
       <c r="O19" s="8"/>
       <c r="P19" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="11">
+        <v>285</v>
+      </c>
+      <c r="B20" s="56">
+        <v>1</v>
+      </c>
+      <c r="C20" s="57">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="11">
         <v>44331</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="56">
-        <v>1</v>
-      </c>
-      <c r="L20" s="57">
-        <v>1</v>
-      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
       <c r="M20" s="53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N20" s="7">
         <v>44358</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P20" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="11">
+        <v>284</v>
+      </c>
+      <c r="B21" s="56">
+        <v>1</v>
+      </c>
+      <c r="C21" s="57">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="11">
         <v>44331</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="56">
-        <v>1</v>
-      </c>
-      <c r="L21" s="57">
-        <v>1</v>
-      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="12"/>
       <c r="M21" s="53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N21" s="11"/>
       <c r="O21" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P21" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>9</v>
+        <v>52</v>
+      </c>
+      <c r="B22" s="56">
+        <v>1</v>
+      </c>
+      <c r="C22" s="57">
+        <v>1</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="11">
+        <v>8</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="11">
         <v>44331</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="56">
-        <v>1</v>
-      </c>
-      <c r="L22" s="57">
-        <v>1</v>
-      </c>
+      <c r="H22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="12"/>
       <c r="M22" s="53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N22" s="11">
         <v>44331</v>
       </c>
       <c r="O22" s="21"/>
       <c r="P22" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="B23" s="56">
+        <v>1</v>
+      </c>
+      <c r="C23" s="57">
+        <v>1</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="11">
+        <v>8</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="11">
         <v>44331</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="56">
-        <v>1</v>
-      </c>
-      <c r="L23" s="57">
-        <v>1</v>
-      </c>
+      <c r="H23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="12"/>
       <c r="M23" s="53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N23" s="19">
         <v>44344</v>
       </c>
       <c r="O23" s="20"/>
       <c r="P23" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+        <v>288</v>
+      </c>
+      <c r="B24" s="56">
+        <v>1</v>
+      </c>
+      <c r="C24" s="57">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24" s="56">
-        <v>1</v>
-      </c>
-      <c r="L24" s="57">
-        <v>1</v>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="M24" s="54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N24" s="19">
         <v>44344</v>
       </c>
       <c r="O24" s="8"/>
       <c r="P24" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+        <v>287</v>
+      </c>
+      <c r="B25" s="56">
+        <v>1</v>
+      </c>
+      <c r="C25" s="57">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="56">
-        <v>1</v>
-      </c>
-      <c r="L25" s="57">
-        <v>1</v>
-      </c>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="12"/>
       <c r="M25" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N25" s="19">
         <v>44344</v>
       </c>
       <c r="O25" s="17"/>
       <c r="P25" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+        <v>286</v>
+      </c>
+      <c r="B26" s="56">
+        <v>1</v>
+      </c>
+      <c r="C26" s="57">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="56">
-        <v>1</v>
-      </c>
-      <c r="L26" s="57">
-        <v>1</v>
-      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="12"/>
       <c r="M26" s="55"/>
       <c r="N26" s="19"/>
       <c r="O26" s="20"/>
       <c r="P26" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="7">
+        <v>34</v>
+      </c>
+      <c r="B27" s="56"/>
+      <c r="C27" s="57">
+        <v>1</v>
+      </c>
+      <c r="D27" s="51"/>
+      <c r="E27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="7">
         <v>44358</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="11" t="s">
-        <v>310</v>
-      </c>
       <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K27" s="56"/>
-      <c r="L27" s="57">
-        <v>1</v>
+      <c r="I27" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="M27" s="54"/>
       <c r="N27" s="11"/>
       <c r="O27" s="8"/>
       <c r="P27" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11" t="s">
-        <v>310</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="11"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="57"/>
+      <c r="I28" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="12"/>
       <c r="M28" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N28" s="7">
         <v>44358</v>
       </c>
       <c r="O28" s="17"/>
       <c r="P28" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11" t="s">
-        <v>310</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57">
+        <v>1</v>
+      </c>
+      <c r="D29" s="51"/>
+      <c r="E29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="11"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="57">
-        <v>1</v>
-      </c>
+      <c r="I29" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="12"/>
       <c r="M29" s="54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N29" s="7"/>
       <c r="O29" s="20"/>
       <c r="P29" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11" t="s">
-        <v>310</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B30" s="56"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="11"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K30" s="56"/>
-      <c r="L30" s="57"/>
+      <c r="I30" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="M30" s="54"/>
       <c r="N30" s="11"/>
       <c r="O30" s="8"/>
       <c r="P30" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11" t="s">
-        <v>310</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B31" s="56"/>
+      <c r="C31" s="57">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="11"/>
       <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="57">
-        <v>1</v>
-      </c>
+      <c r="I31" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="12"/>
       <c r="M31" s="53"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
       <c r="P31" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11" t="s">
-        <v>310</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B32" s="56"/>
+      <c r="C32" s="57">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="11"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="57">
-        <v>1</v>
-      </c>
+      <c r="I32" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="12"/>
       <c r="M32" s="55"/>
       <c r="N32" s="14"/>
       <c r="O32" s="15"/>
       <c r="P32" s="39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11" t="s">
-        <v>310</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B33" s="56"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="11"/>
       <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="57"/>
+      <c r="I33" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="12"/>
       <c r="M33" s="1"/>
       <c r="N33"/>
     </row>
     <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11" t="s">
-        <v>310</v>
-      </c>
+      <c r="B34" s="56"/>
+      <c r="C34" s="57">
+        <v>1</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="11"/>
       <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="57">
-        <v>1</v>
-      </c>
+      <c r="I34" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="12"/>
     </row>
     <row r="35" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="B35" s="56"/>
+      <c r="C35" s="57">
+        <v>1</v>
+      </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11" t="s">
-        <v>310</v>
-      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="11"/>
       <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K35" s="56"/>
-      <c r="L35" s="57">
-        <v>1</v>
+      <c r="I35" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11" t="s">
-        <v>310</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B36" s="56"/>
+      <c r="C36" s="57">
+        <v>1</v>
+      </c>
+      <c r="D36" s="51"/>
+      <c r="E36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="11"/>
       <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="57">
-        <v>1</v>
-      </c>
+      <c r="I36" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="12"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11" t="s">
-        <v>310</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B37" s="56"/>
+      <c r="C37" s="57">
+        <v>1</v>
+      </c>
+      <c r="D37" s="51"/>
+      <c r="E37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="11"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="57">
-        <v>1</v>
-      </c>
+      <c r="I37" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="12"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="51"/>
-      <c r="C38" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11" t="s">
-        <v>310</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B38" s="56"/>
+      <c r="C38" s="57">
+        <v>1</v>
+      </c>
+      <c r="D38" s="51"/>
+      <c r="E38" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="11"/>
       <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="57">
-        <v>1</v>
-      </c>
+      <c r="I38" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="12"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11" t="s">
-        <v>310</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B39" s="56"/>
+      <c r="C39" s="57">
+        <v>1</v>
+      </c>
+      <c r="D39" s="51"/>
+      <c r="E39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="11"/>
       <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K39" s="56"/>
-      <c r="L39" s="57">
-        <v>1</v>
+      <c r="I39" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11" t="s">
-        <v>310</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B40" s="56"/>
+      <c r="C40" s="57">
+        <v>1</v>
+      </c>
+      <c r="D40" s="51"/>
+      <c r="E40" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="11"/>
       <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="56"/>
-      <c r="L40" s="57">
-        <v>1</v>
+      <c r="I40" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11" t="s">
-        <v>310</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B41" s="56"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="11"/>
       <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="57"/>
+      <c r="I41" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="12"/>
     </row>
     <row r="42" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A42" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K42" s="56"/>
-      <c r="L42" s="57">
+      <c r="B42" s="56"/>
+      <c r="C42" s="57">
         <v>1</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="B43" s="56"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
-      <c r="J43" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="K43" s="56"/>
-      <c r="L43" s="57"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="12" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="B44" s="56"/>
+      <c r="C44" s="57">
+        <v>1</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
-      <c r="J44" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="56"/>
-      <c r="L44" s="57">
-        <v>1</v>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="B45" s="56"/>
+      <c r="C45" s="57">
+        <v>1</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="8"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="57">
-        <v>1</v>
-      </c>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="6"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="B46" s="56"/>
+      <c r="C46" s="57">
+        <v>1</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
-      <c r="J46" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K46" s="56"/>
-      <c r="L46" s="57">
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="56"/>
+      <c r="C47" s="57">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="57">
-        <v>1</v>
-      </c>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="6"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="B48" s="56"/>
+      <c r="C48" s="57">
+        <v>1</v>
+      </c>
+      <c r="D48" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="8"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="57">
-        <v>1</v>
-      </c>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="6"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="B49" s="56">
+        <v>1</v>
+      </c>
+      <c r="C49" s="57">
+        <v>1</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="7">
+        <v>8</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="7">
         <v>44344</v>
       </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K49" s="56">
-        <v>1</v>
-      </c>
-      <c r="L49" s="57">
-        <v>1</v>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="6" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
+        <v>390</v>
+      </c>
+      <c r="B50" s="56"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="8"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
-      <c r="J50" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="K50" s="56"/>
-      <c r="L50" s="57"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="6" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="A51" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="B51" s="56"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="8"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="57"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="6"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
+        <v>391</v>
+      </c>
+      <c r="B52" s="56"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="8"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
-      <c r="J52" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="K52" s="56"/>
-      <c r="L52" s="57"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="6"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="1">
-        <f>SUM($K$2:$K52)</f>
-        <v>21</v>
-      </c>
-      <c r="L53" s="1">
-        <f>SUM(L2:L52)</f>
-        <v>38</v>
-      </c>
+      <c r="A53" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="B53" s="56"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="6"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="5"/>
+      <c r="A54" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B54" s="56"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="6"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="1">
-        <f>K53/L53*100</f>
-        <v>55.26315789473685</v>
-      </c>
+      <c r="A55" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="B55" s="56"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="6"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="5"/>
+      <c r="A56" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B56" s="56"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="6"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="5"/>
+      <c r="A57" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="B57" s="56"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="6" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="5"/>
+      <c r="A58" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="6" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="5"/>
+      <c r="A59" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B59" s="56"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="6" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
+      <c r="B60" s="1">
+        <f>SUM($B$2:$B57)</f>
+        <v>21</v>
+      </c>
+      <c r="C60" s="1">
+        <f>SUM(C2:C57)</f>
+        <v>38</v>
+      </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
-      <c r="J60" s="5"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="5"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="5"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="5"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
+      <c r="B62" s="1">
+        <f>B60/C60*100</f>
+        <v>55.26315789473685</v>
+      </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
-      <c r="J62" s="5"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="5"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
-      <c r="J63" s="5"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="5"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="3"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="5"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="3"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="5"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="3"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="5"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="3"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E46:I46 B27:B46 H28:I42 B2:I16 B18:I18 B20:I26 D28:F42 D27 D43:I45">
+  <conditionalFormatting sqref="G46:K46 D27:D46 J28:K42 D2:K16 D18:K18 D20:K26 F28:H42 F27 F43:K45">
     <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",B2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("IP",D2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="53" priority="56" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",B2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",F49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",F49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",F46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",F46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:I17">
+    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",D17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",D17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="containsText" dxfId="46" priority="45" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",J17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:I19">
+    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",D19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",D19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",J19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",J19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43 E45 E41 E35 E33 E30">
+    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",E30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",E30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",E48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",E48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",E46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",E46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",E44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",E44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",E42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",E42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",E40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",E40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",E39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",E39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",E38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",E38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",E37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",E37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",E36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",E36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",E34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",E34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",E32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",E32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",E31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",E31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",E29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",E29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",E28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",E28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",E27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",E27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",E49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",E49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",D49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",D49)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",D46)))</formula>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",D46)))</formula>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:G17">
-    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",B17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",B17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="containsText" dxfId="46" priority="45" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",H17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",H17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:G19">
-    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",B19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",B19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",H19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",H19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43 C45 C41 C35 C33 C30">
-    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",C30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",C30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",C48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",C48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",C46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",C46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",C44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",C44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",C42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",C42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",C40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",C40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",C39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",C39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",C38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",C38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",C37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",C37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",C36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",C36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",C34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",C34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",C32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",C32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",C31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",C31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",C29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",C29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",C28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",C28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",C27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",C27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",C49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",C49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",B49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",B49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",B48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",B48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="F47">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("IP",F47)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",F47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4413,12 +4519,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0431B7A2-E522-4260-92BF-E7619809AD3B}">
-  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4434,360 +4539,360 @@
   <sheetData>
     <row r="1" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>180</v>
-      </c>
       <c r="C7" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>172</v>
-      </c>
       <c r="C9" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>164</v>
-      </c>
       <c r="C11" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>159</v>
-      </c>
       <c r="C12" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>155</v>
-      </c>
       <c r="C13" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="C14" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>147</v>
-      </c>
       <c r="C15" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>143</v>
-      </c>
       <c r="C16" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G19" s="29"/>
     </row>
@@ -4839,7 +4944,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4EABE2-C50A-4D03-9536-25617A158ADD}">
-  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4854,50 +4958,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4914,7 +5018,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F25844-7967-44FB-93A5-72FA0CC1620D}">
-  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4930,77 +5033,77 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="29"/>
     </row>
@@ -5021,11 +5124,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A387640-AE1F-4ED1-88F0-2E6AAB378BE5}">
-  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="119" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5040,7 +5142,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -5049,231 +5151,231 @@
     </row>
     <row r="2" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D3" s="41">
         <v>10</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D4" s="41">
         <v>50</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D5" s="41">
         <v>50</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D6" s="41">
         <v>7</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D7" s="41">
         <v>75</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D8" s="41">
         <v>75</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D9" s="41">
         <v>90</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D10" s="41">
         <v>19</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D11" s="41">
         <v>19</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D12" s="41">
         <v>1</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D13" s="41">
         <v>38</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="24" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" s="41"/>
       <c r="C14" s="41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D14" s="41">
         <v>4000</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="58" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B17" s="58"/>
       <c r="C17" s="58"/>
@@ -5282,180 +5384,180 @@
     </row>
     <row r="18" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D19" s="45">
         <v>38</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D20" s="45">
         <v>75</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D21" s="45">
         <v>75</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D22" s="45">
         <v>75</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D23" s="45">
         <v>1</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D24" s="45">
         <v>38</v>
       </c>
       <c r="E24" s="45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B25" s="45"/>
       <c r="C25" s="45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D25" s="45">
         <v>4000</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D26" s="45">
         <v>19</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D27" s="45">
         <v>19</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B30" s="58"/>
       <c r="C30" s="58"/>
@@ -5464,146 +5566,146 @@
     </row>
     <row r="31" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D32" s="45">
         <v>38</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D33" s="45">
         <v>75</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D34" s="45">
         <v>1</v>
       </c>
       <c r="E34" s="45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D35" s="45">
         <v>38</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B36" s="45"/>
       <c r="C36" s="45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D36" s="45">
         <v>4000</v>
       </c>
       <c r="E36" s="45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D37" s="45">
         <v>19</v>
       </c>
       <c r="E37" s="45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D38" s="45">
         <v>19</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B41" s="58"/>
       <c r="C41" s="58"/>
@@ -5612,209 +5714,209 @@
     </row>
     <row r="42" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C43" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D43" s="45">
         <v>10</v>
       </c>
       <c r="E43" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D44" s="45">
         <v>50</v>
       </c>
       <c r="E44" s="45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D45" s="45">
         <v>7</v>
       </c>
       <c r="E45" s="45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C46" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D46" s="45">
         <v>75</v>
       </c>
       <c r="E46" s="45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D47" s="45">
         <v>75</v>
       </c>
       <c r="E47" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D48" s="45">
         <v>90</v>
       </c>
       <c r="E48" s="45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B49" s="45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D49" s="45">
         <v>19</v>
       </c>
       <c r="E49" s="45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B50" s="45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D50" s="45">
         <v>19</v>
       </c>
       <c r="E50" s="45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B51" s="45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D51" s="45">
         <v>1</v>
       </c>
       <c r="E51" s="45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B52" s="45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C52" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D52" s="45">
         <v>38</v>
       </c>
       <c r="E52" s="45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B53" s="45"/>
       <c r="C53" s="45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D53" s="45">
         <v>4000</v>
       </c>
       <c r="E53" s="45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B54" s="46"/>
       <c r="C54" s="46"/>
@@ -5840,7 +5942,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93154698-3716-4ED5-94DB-E99FEE875E8A}">
-  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5856,66 +5957,66 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B4" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>297</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>298</v>
       </c>
       <c r="D4" s="31"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B5" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="D5" s="31" t="s">
         <v>302</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -5931,7 +6032,6 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E419D0F2-458F-41B6-A695-345743DAC448}">
-  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5948,682 +6048,682 @@
   <sheetData>
     <row r="1" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="C1" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>322</v>
-      </c>
       <c r="E1" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" t="s">
         <v>323</v>
       </c>
-      <c r="B2" t="s">
-        <v>324</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>327</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B27" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B35" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B37" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B38" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B42" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B43" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B44" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B45" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B46" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B47" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B49" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B50" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B51" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B52" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B53" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B55" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B56" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B58" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B59" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B60" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B61" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/docs/BC Parks Datasets.xlsx
+++ b/docs/BC Parks Datasets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\bcparks.ca\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rofiddle\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996C84B2-9B02-4F89-9449-1B764028836A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C200F23B-ED15-4D8E-9164-20122555684F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{18B4C128-B343-4925-877B-67BA878CF356}"/>
+    <workbookView xWindow="-21825" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{18B4C128-B343-4925-877B-67BA878CF356}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasets" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="406">
   <si>
     <t>A view created from PublicAdvisories + ProtectedArea</t>
   </si>
@@ -1224,6 +1224,39 @@
   </si>
   <si>
     <t>TourismRegionParkXRef</t>
+  </si>
+  <si>
+    <t>ParkAccessibility</t>
+  </si>
+  <si>
+    <t>TrailReports</t>
+  </si>
+  <si>
+    <t>GPS Data</t>
+  </si>
+  <si>
+    <t>British Columbia Conservancy Areas</t>
+  </si>
+  <si>
+    <t>https://governmentofbc.maps.arcgis.com/home/item.html?id=778341071b904a1db0ebb583ab5ab36e</t>
+  </si>
+  <si>
+    <t>ParkAccessibilityPhotos</t>
+  </si>
+  <si>
+    <t>ParkAccessibilitySurvey</t>
+  </si>
+  <si>
+    <t>ParkAccessibilitySurveyUnit</t>
+  </si>
+  <si>
+    <t>ParkAccessibilityUnit</t>
+  </si>
+  <si>
+    <t>ParkAccessibilityFacility</t>
+  </si>
+  <si>
+    <t>ParkAccessibilityFeature</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1581,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1693,14 +1726,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1710,11 +1758,28 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{46D87EDF-5C7C-4F52-8EA7-97C8E3BDDB87}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{BD9BD47A-6F70-4128-895D-0D50A45B4839}"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="57">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2487,18 +2552,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB56F91-661F-42B6-A665-E7331567F54D}">
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.83203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="3" bestFit="1" customWidth="1"/>
@@ -2507,7 +2572,7 @@
     <col min="10" max="11" width="11.83203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="61.1640625" style="2" customWidth="1"/>
     <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="39" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="137" bestFit="1" customWidth="1"/>
   </cols>
@@ -2566,7 +2631,7 @@
       <c r="A2" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="56">
+      <c r="B2" s="9">
         <v>1</v>
       </c>
       <c r="C2" s="57">
@@ -2611,7 +2676,7 @@
       <c r="A3" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="56">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
       <c r="C3" s="57">
@@ -2653,7 +2718,7 @@
       <c r="A4" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
       <c r="C4" s="57">
@@ -2693,7 +2758,7 @@
       <c r="A5" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="56">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
       <c r="C5" s="57">
@@ -2735,7 +2800,7 @@
       <c r="A6" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="56">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
       <c r="C6" s="57">
@@ -2777,7 +2842,7 @@
       <c r="A7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="56">
+      <c r="B7" s="9">
         <v>1</v>
       </c>
       <c r="C7" s="57">
@@ -2811,7 +2876,7 @@
       <c r="A8" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="56">
+      <c r="B8" s="9">
         <v>1</v>
       </c>
       <c r="C8" s="57">
@@ -2843,7 +2908,7 @@
       <c r="A9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="56">
+      <c r="B9" s="9">
         <v>1</v>
       </c>
       <c r="C9" s="57">
@@ -2877,7 +2942,7 @@
       <c r="A10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="56">
+      <c r="B10" s="9">
         <v>1</v>
       </c>
       <c r="C10" s="57">
@@ -2919,7 +2984,7 @@
       <c r="A11" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="56"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="57"/>
       <c r="D11" s="9" t="s">
         <v>8</v>
@@ -2945,7 +3010,7 @@
       <c r="A12" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="56"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="57"/>
       <c r="D12" s="9" t="s">
         <v>8</v>
@@ -2973,7 +3038,7 @@
       <c r="A13" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="56"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="57"/>
       <c r="D13" s="9" t="s">
         <v>8</v>
@@ -3001,7 +3066,7 @@
       <c r="A14" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="56"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="57"/>
       <c r="D14" s="9" t="s">
         <v>8</v>
@@ -3029,7 +3094,7 @@
       <c r="A15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="56"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="57"/>
       <c r="D15" s="9" t="s">
         <v>8</v>
@@ -3057,7 +3122,7 @@
       <c r="A16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="56">
+      <c r="B16" s="9">
         <v>1</v>
       </c>
       <c r="C16" s="57">
@@ -3095,7 +3160,7 @@
       <c r="A17" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="B17" s="56">
+      <c r="B17" s="9">
         <v>1</v>
       </c>
       <c r="C17" s="57">
@@ -3131,7 +3196,7 @@
       <c r="A18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="56">
+      <c r="B18" s="9">
         <v>1</v>
       </c>
       <c r="C18" s="57">
@@ -3171,7 +3236,7 @@
       <c r="A19" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="B19" s="56">
+      <c r="B19" s="9">
         <v>1</v>
       </c>
       <c r="C19" s="57">
@@ -3207,7 +3272,7 @@
       <c r="A20" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="B20" s="56">
+      <c r="B20" s="9">
         <v>1</v>
       </c>
       <c r="C20" s="57">
@@ -3245,7 +3310,7 @@
       <c r="A21" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B21" s="56">
+      <c r="B21" s="9">
         <v>1</v>
       </c>
       <c r="C21" s="57">
@@ -3281,7 +3346,7 @@
       <c r="A22" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="56">
+      <c r="B22" s="9">
         <v>1</v>
       </c>
       <c r="C22" s="57">
@@ -3323,7 +3388,7 @@
       <c r="A23" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="56">
+      <c r="B23" s="9">
         <v>1</v>
       </c>
       <c r="C23" s="57">
@@ -3365,7 +3430,7 @@
       <c r="A24" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="B24" s="56">
+      <c r="B24" s="9">
         <v>1</v>
       </c>
       <c r="C24" s="57">
@@ -3399,7 +3464,7 @@
       <c r="A25" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="B25" s="56">
+      <c r="B25" s="9">
         <v>1</v>
       </c>
       <c r="C25" s="57">
@@ -3431,7 +3496,7 @@
       <c r="A26" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="B26" s="56">
+      <c r="B26" s="9">
         <v>1</v>
       </c>
       <c r="C26" s="57">
@@ -3459,11 +3524,13 @@
       <c r="A27" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="56"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="57">
         <v>1</v>
       </c>
-      <c r="D27" s="51"/>
+      <c r="D27" s="51" t="s">
+        <v>1</v>
+      </c>
       <c r="E27" s="9" t="s">
         <v>8</v>
       </c>
@@ -3493,7 +3560,7 @@
       <c r="A28" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="56"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="57"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
@@ -3525,11 +3592,13 @@
       <c r="A29" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="56"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="57">
         <v>1</v>
       </c>
-      <c r="D29" s="51"/>
+      <c r="D29" s="51" t="s">
+        <v>1</v>
+      </c>
       <c r="E29" s="9" t="s">
         <v>8</v>
       </c>
@@ -3555,7 +3624,7 @@
       <c r="A30" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="56"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="57"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -3583,7 +3652,7 @@
       <c r="A31" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="56"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="57">
         <v>1</v>
       </c>
@@ -3613,7 +3682,7 @@
       <c r="A32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="56"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="57">
         <v>1</v>
       </c>
@@ -3643,7 +3712,7 @@
       <c r="A33" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="56"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="57"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -3665,7 +3734,7 @@
       <c r="A34" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="56"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="57">
         <v>1</v>
       </c>
@@ -3689,7 +3758,7 @@
       <c r="A35" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="56"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="57">
         <v>1</v>
       </c>
@@ -3711,7 +3780,7 @@
       <c r="A36" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="56"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="57">
         <v>1</v>
       </c>
@@ -3735,7 +3804,7 @@
       <c r="A37" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="56"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="57">
         <v>1</v>
       </c>
@@ -3757,7 +3826,7 @@
       <c r="A38" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="56"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="57">
         <v>1</v>
       </c>
@@ -3779,7 +3848,7 @@
       <c r="A39" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="56"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="57">
         <v>1</v>
       </c>
@@ -3805,7 +3874,7 @@
       <c r="A40" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="56"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="57">
         <v>1</v>
       </c>
@@ -3831,7 +3900,7 @@
       <c r="A41" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="56"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="57"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -3848,15 +3917,17 @@
       <c r="L41" s="12"/>
     </row>
     <row r="42" spans="1:14" ht="24" x14ac:dyDescent="0.2">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="56"/>
+      <c r="B42" s="9">
+        <v>1</v>
+      </c>
       <c r="C42" s="57">
         <v>1</v>
       </c>
-      <c r="D42" s="51" t="s">
-        <v>1</v>
+      <c r="D42" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>8</v>
@@ -3881,7 +3952,7 @@
       <c r="A43" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="56"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="57"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -3901,7 +3972,7 @@
       <c r="A44" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="56"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="57">
         <v>1</v>
       </c>
@@ -3923,56 +3994,52 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="56"/>
+        <v>385</v>
+      </c>
+      <c r="B45" s="9"/>
       <c r="C45" s="57">
         <v>1</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
       <c r="L45" s="6"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="56"/>
+        <v>9</v>
+      </c>
+      <c r="B46" s="9"/>
       <c r="C46" s="57">
         <v>1</v>
       </c>
       <c r="D46" s="9"/>
-      <c r="E46" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="8"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
-      <c r="L46" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="L46" s="6"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="56"/>
+        <v>7</v>
+      </c>
+      <c r="B47" s="9"/>
       <c r="C47" s="57">
         <v>1</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
+      <c r="E47" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="F47" s="9" t="s">
         <v>8</v>
       </c>
@@ -3981,23 +4048,23 @@
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
-      <c r="L47" s="6"/>
+      <c r="L47" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="56"/>
+        <v>5</v>
+      </c>
+      <c r="B48" s="9"/>
       <c r="C48" s="57">
         <v>1</v>
       </c>
-      <c r="D48" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -4007,57 +4074,61 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="56">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B49" s="9"/>
       <c r="C49" s="57">
         <v>1</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>8</v>
+      <c r="D49" s="51" t="s">
+        <v>1</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="7">
-        <v>44344</v>
-      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="B50" s="56"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="B50" s="9">
+        <v>1</v>
+      </c>
+      <c r="C50" s="57">
+        <v>1</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="7">
+        <v>44344</v>
+      </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="B51" s="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="B51" s="9"/>
       <c r="C51" s="57"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -4067,13 +4138,15 @@
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
-      <c r="L51" s="6"/>
+      <c r="L51" s="6" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="B52" s="56"/>
+      <c r="A52" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="B52" s="9"/>
       <c r="C52" s="57"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
@@ -4086,10 +4159,10 @@
       <c r="L52" s="6"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="B53" s="56"/>
+      <c r="A53" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="B53" s="9"/>
       <c r="C53" s="57"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
@@ -4102,10 +4175,10 @@
       <c r="L53" s="6"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="B54" s="56"/>
+      <c r="A54" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="B54" s="9"/>
       <c r="C54" s="57"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -4118,10 +4191,10 @@
       <c r="L54" s="6"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="B55" s="56"/>
+      <c r="A55" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B55" s="9"/>
       <c r="C55" s="57"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
@@ -4134,10 +4207,10 @@
       <c r="L55" s="6"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="B56" s="56"/>
+      <c r="A56" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="B56" s="9"/>
       <c r="C56" s="57"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
@@ -4151,9 +4224,9 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="B57" s="56"/>
+        <v>385</v>
+      </c>
+      <c r="B57" s="9"/>
       <c r="C57" s="57"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -4163,34 +4236,32 @@
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
-      <c r="L57" s="6" t="s">
-        <v>318</v>
-      </c>
+      <c r="L57" s="6"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="B58" s="56"/>
-      <c r="C58" s="56"/>
+        <v>316</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="57"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
       <c r="L58" s="6" t="s">
-        <v>388</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
+        <v>386</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="8"/>
@@ -4204,288 +4275,443 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="1">
-        <f>SUM($B$2:$B57)</f>
-        <v>21</v>
-      </c>
-      <c r="C60" s="1">
-        <f>SUM(C2:C57)</f>
-        <v>38</v>
-      </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="5"/>
+      <c r="A60" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="6" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="5"/>
+      <c r="A61" s="58" t="s">
+        <v>395</v>
+      </c>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
+      <c r="K61" s="60"/>
+      <c r="L61" s="61"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="1">
-        <f>B60/C60*100</f>
-        <v>55.26315789473685</v>
-      </c>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="5"/>
+      <c r="A62" s="63" t="s">
+        <v>400</v>
+      </c>
+      <c r="B62" s="59"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="60"/>
+      <c r="K62" s="60"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="5"/>
+      <c r="A63" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="B63" s="59"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="60"/>
+      <c r="K63" s="60"/>
+      <c r="L63" s="61"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="5"/>
+      <c r="A64" s="63" t="s">
+        <v>402</v>
+      </c>
+      <c r="B64" s="59"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="60"/>
+      <c r="K64" s="60"/>
+      <c r="L64" s="61"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="5"/>
+      <c r="A65" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="B65" s="59"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="60"/>
+      <c r="L65" s="61"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="5"/>
+      <c r="A66" s="63" t="s">
+        <v>405</v>
+      </c>
+      <c r="B66" s="59"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="60"/>
+      <c r="J66" s="60"/>
+      <c r="K66" s="60"/>
+      <c r="L66" s="61"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="5"/>
+      <c r="A67" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="60"/>
+      <c r="K67" s="60"/>
+      <c r="L67" s="61"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="58" t="s">
+        <v>387</v>
+      </c>
+      <c r="B68" s="59"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
+      <c r="I68" s="60"/>
+      <c r="J68" s="60"/>
+      <c r="K68" s="60"/>
+      <c r="L68" s="61" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3">
+        <f>SUM($B$2:$B58)</f>
+        <v>22</v>
+      </c>
+      <c r="C69" s="3">
+        <f>SUM(C2:C58)</f>
+        <v>39</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="5"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="3"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="5"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3">
+        <f>B69/C69*100</f>
+        <v>56.410256410256409</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="5"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="3"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="5"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="3"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="5"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="3"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="5"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="3"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="5"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="3"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G46:K46 D27:D46 J28:K42 D2:K16 D18:K18 D20:K26 F28:H42 F27 F43:K45">
-    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="IP">
+  <conditionalFormatting sqref="G47:K47 D27:D41 J28:K42 D2:K16 D18:K18 D20:K26 F28:H42 F27 F43:K46 D43:D47">
+    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="56" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="55" priority="58" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
+  <conditionalFormatting sqref="F50">
+    <cfRule type="containsText" dxfId="54" priority="53" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",F50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="54" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",F50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
     <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",F49)))</formula>
+      <formula>NOT(ISERROR(SEARCH("IP",F47)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",F49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",F46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",F46)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",F47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:I17">
-    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="containsText" dxfId="46" priority="45" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",J17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",J17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:I19">
-    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="46" priority="45" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",D19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",D19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",J19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",J19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43 E45 E41 E35 E33 E30">
-    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="IP">
+  <conditionalFormatting sqref="E43 E46 E41 E35 E33 E30">
+    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",E30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",E30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
+  <conditionalFormatting sqref="E49">
+    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",E49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",E49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
     <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",E48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("IP",E47)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",E48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",E47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
+  <conditionalFormatting sqref="E44:E45">
     <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",E46)))</formula>
+      <formula>NOT(ISERROR(SEARCH("IP",E44)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",E46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",E44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",E44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",E42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",E42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",E40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",E40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",E39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",E39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",E38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",E38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",E37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",E37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",E36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",E36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",E34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",E34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",E32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",E32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",E31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",E31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",E29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",E29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",E28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",E28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",E27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
+  <conditionalFormatting sqref="E50">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",E50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",E50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
     <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",E49)))</formula>
+      <formula>NOT(ISERROR(SEARCH("IP",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",E49)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",D50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
@@ -4496,20 +4722,20 @@
       <formula>NOT(ISERROR(SEARCH("Y",D49)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="F48">
     <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("IP",F48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",F48)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
+  <conditionalFormatting sqref="D42">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",F47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("IP",D42)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",F47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",D42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5018,10 +5244,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F25844-7967-44FB-93A5-72FA0CC1620D}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5052,71 +5278,81 @@
       <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
-        <v>113</v>
+      <c r="A3" s="31" t="s">
+        <v>398</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>112</v>
+        <v>399</v>
       </c>
       <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="29"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B5" s="30" t="s">
         <v>110</v>
-      </c>
-      <c r="C4" s="29"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>108</v>
       </c>
       <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="29"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B7" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C7" s="30" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="30" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B9" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C9" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{8B00343E-635F-465F-88E4-95AF98C37099}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{A0610FE0-B946-464C-AFE4-367E9218F130}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{8B00343E-635F-465F-88E4-95AF98C37099}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{A0610FE0-B946-464C-AFE4-367E9218F130}"/>
     <hyperlink ref="B2" r:id="rId3" xr:uid="{283B4150-EEF1-4203-8D45-93C296CF558B}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{853F14CE-6A9F-4E09-B89A-A1C27A87FBFF}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{2C7AA59D-FB64-4C2E-ABF7-12B315F11D9B}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{A5035979-C823-417A-B031-A66BCB7E7416}"/>
-    <hyperlink ref="C7" r:id="rId7" display="https://services6.arcgis.com/ubm4tcTYICKBpist/arcgis/rest/services/British_Columbia_Bans_and_Prohibition_Areas/FeatureServer/0/query?f=json&amp;where=1%3D1&amp;returnGeometry=false&amp;spatialRel=esriSpatialRelIntersects&amp;outFields=*&amp;orderByFields=OBJECTID%20ASC&amp;resultOffset=0&amp;resultRecordCount=50&amp;cacheHint=true&amp;quantizationParameters=%7B%22mode%22%3A%22edit%22%7D" xr:uid="{9C73D11A-61B2-4DEE-B6FB-54F56820A334}"/>
-    <hyperlink ref="C6" r:id="rId8" xr:uid="{71CAC8A3-BBFB-4DB2-AC7C-29624B8B76F7}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{853F14CE-6A9F-4E09-B89A-A1C27A87FBFF}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{2C7AA59D-FB64-4C2E-ABF7-12B315F11D9B}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{A5035979-C823-417A-B031-A66BCB7E7416}"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://services6.arcgis.com/ubm4tcTYICKBpist/arcgis/rest/services/British_Columbia_Bans_and_Prohibition_Areas/FeatureServer/0/query?f=json&amp;where=1%3D1&amp;returnGeometry=false&amp;spatialRel=esriSpatialRelIntersects&amp;outFields=*&amp;orderByFields=OBJECTID%20ASC&amp;resultOffset=0&amp;resultRecordCount=50&amp;cacheHint=true&amp;quantizationParameters=%7B%22mode%22%3A%22edit%22%7D" xr:uid="{9C73D11A-61B2-4DEE-B6FB-54F56820A334}"/>
+    <hyperlink ref="C7" r:id="rId8" xr:uid="{71CAC8A3-BBFB-4DB2-AC7C-29624B8B76F7}"/>
+    <hyperlink ref="B3" r:id="rId9" xr:uid="{35DB0182-AEDA-4F25-A991-163B02C2EE84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5141,13 +5377,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -5374,13 +5610,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
     </row>
     <row r="18" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
@@ -5556,13 +5792,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
     </row>
     <row r="31" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
@@ -5704,13 +5940,13 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
     </row>
     <row r="42" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="40" t="s">

--- a/docs/BC Parks Datasets.xlsx
+++ b/docs/BC Parks Datasets.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rofiddle\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C200F23B-ED15-4D8E-9164-20122555684F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0D82B1-37AB-4C1B-BC00-76662FBC0A24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21825" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{18B4C128-B343-4925-877B-67BA878CF356}"/>
+    <workbookView xWindow="-21825" yWindow="-16320" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{18B4C128-B343-4925-877B-67BA878CF356}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasets" sheetId="1" r:id="rId1"/>
-    <sheet name="DataCatalogue" sheetId="2" r:id="rId2"/>
-    <sheet name="API" sheetId="4" r:id="rId3"/>
-    <sheet name="ArcGIS Online" sheetId="5" r:id="rId4"/>
-    <sheet name="WildfireDatasets" sheetId="3" r:id="rId5"/>
-    <sheet name="GitHub" sheetId="6" r:id="rId6"/>
-    <sheet name="JSON" sheetId="7" r:id="rId7"/>
+    <sheet name="SystemConnections" sheetId="8" r:id="rId2"/>
+    <sheet name="DataCatalogue" sheetId="2" r:id="rId3"/>
+    <sheet name="API" sheetId="4" r:id="rId4"/>
+    <sheet name="ArcGIS Online" sheetId="5" r:id="rId5"/>
+    <sheet name="WildfireDatasets" sheetId="3" r:id="rId6"/>
+    <sheet name="GitHub" sheetId="6" r:id="rId7"/>
+    <sheet name="JSON" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="411">
   <si>
     <t>A view created from PublicAdvisories + ProtectedArea</t>
   </si>
@@ -101,9 +102,6 @@
     <t>DCFacilities</t>
   </si>
   <si>
-    <t>SubAreaType</t>
-  </si>
-  <si>
     <t>OperatingDatesSubArea</t>
   </si>
   <si>
@@ -1257,6 +1255,24 @@
   </si>
   <si>
     <t>ParkAccessibilityFeature</t>
+  </si>
+  <si>
+    <t>ParkSubAreaType</t>
+  </si>
+  <si>
+    <t>ParkSubArea</t>
+  </si>
+  <si>
+    <t>https://governmentofbc.maps.arcgis.com/home/item.html?id=743e382e7fc743dea87b5081988582e9</t>
+  </si>
+  <si>
+    <t>AWS GeoServer</t>
+  </si>
+  <si>
+    <t>AWS CityWide API</t>
+  </si>
+  <si>
+    <t>Resource</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1597,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1744,12 +1760,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2552,11 +2569,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB56F91-661F-42B6-A665-E7331567F54D}">
-  <dimension ref="A1:P76"/>
+  <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2579,57 +2596,57 @@
   <sheetData>
     <row r="1" spans="1:16" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>314</v>
-      </c>
       <c r="D1" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="L1" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>304</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="L1" s="25" t="s">
+      <c r="M1" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="24" t="s">
-        <v>96</v>
-      </c>
       <c r="N1" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="23" t="s">
-        <v>95</v>
-      </c>
       <c r="P1" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="9">
         <v>1</v>
@@ -2653,15 +2670,15 @@
         <v>8</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
       <c r="L2" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N2" s="19" t="str">
         <f>IFERROR(VLOOKUP(M2,A:G,5,FALSE),"")</f>
@@ -2669,12 +2686,12 @@
       </c>
       <c r="O2" s="20"/>
       <c r="P2" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
@@ -2698,25 +2715,25 @@
         <v>8</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M3" s="53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="8"/>
       <c r="P3" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
@@ -2740,23 +2757,23 @@
         <v>8</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="12"/>
       <c r="M4" s="53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="8"/>
       <c r="P4" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="9">
         <v>1</v>
@@ -2780,25 +2797,25 @@
         <v>8</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="12"/>
       <c r="M5" s="53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N5" s="11">
         <v>44331</v>
       </c>
       <c r="O5" s="8"/>
       <c r="P5" s="39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
@@ -2822,25 +2839,25 @@
         <v>8</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="12"/>
       <c r="M6" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N6" s="7">
         <v>44358</v>
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="24" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="9">
         <v>1</v>
@@ -2859,22 +2876,22 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M7" s="53" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N7" s="11">
         <v>44331</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="9">
         <v>1</v>
@@ -2891,22 +2908,22 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M8" s="53" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N8" s="11">
         <v>44331</v>
       </c>
       <c r="O8" s="8"/>
       <c r="P8" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="9">
         <v>1</v>
@@ -2922,25 +2939,25 @@
         <v>8</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="12"/>
       <c r="M9" s="53" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N9" s="11">
         <v>44331</v>
       </c>
       <c r="O9" s="8"/>
       <c r="P9" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="9">
         <v>1</v>
@@ -2967,22 +2984,22 @@
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M10" s="53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N10" s="11">
         <v>44331</v>
       </c>
       <c r="O10" s="8"/>
       <c r="P10" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="57"/>
@@ -3000,15 +3017,15 @@
       <c r="M11" s="53"/>
       <c r="N11" s="11"/>
       <c r="O11" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P11" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="57"/>
@@ -3028,15 +3045,15 @@
       </c>
       <c r="N12" s="11"/>
       <c r="O12" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P12" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="57"/>
@@ -3052,19 +3069,19 @@
       <c r="K13" s="11"/>
       <c r="L13" s="12"/>
       <c r="M13" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N13" s="7">
         <v>44358</v>
       </c>
       <c r="O13" s="8"/>
       <c r="P13" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="57"/>
@@ -3084,15 +3101,15 @@
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P14" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="57"/>
@@ -3108,19 +3125,19 @@
       <c r="K15" s="11"/>
       <c r="L15" s="12"/>
       <c r="M15" s="55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N15" s="7">
         <v>44358</v>
       </c>
       <c r="O15" s="17"/>
       <c r="P15" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="9">
         <v>1</v>
@@ -3153,12 +3170,12 @@
       </c>
       <c r="O16" s="20"/>
       <c r="P16" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B17" s="9">
         <v>1</v>
@@ -3182,19 +3199,19 @@
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N17" s="11">
         <v>44331</v>
       </c>
       <c r="O17" s="8"/>
       <c r="P17" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="9">
         <v>1</v>
@@ -3219,22 +3236,22 @@
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M18" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N18" s="11">
         <v>44331</v>
       </c>
       <c r="O18" s="8"/>
       <c r="P18" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B19" s="9">
         <v>1</v>
@@ -3258,19 +3275,19 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N19" s="11">
         <v>44331</v>
       </c>
       <c r="O19" s="8"/>
       <c r="P19" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B20" s="9">
         <v>1</v>
@@ -3294,21 +3311,21 @@
       <c r="K20" s="11"/>
       <c r="L20" s="12"/>
       <c r="M20" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N20" s="7">
         <v>44358</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P20" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B21" s="9">
         <v>1</v>
@@ -3336,15 +3353,15 @@
       </c>
       <c r="N21" s="11"/>
       <c r="O21" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P21" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="9">
         <v>1</v>
@@ -3368,25 +3385,25 @@
         <v>8</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="12"/>
       <c r="M22" s="53" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N22" s="11">
         <v>44331</v>
       </c>
       <c r="O22" s="21"/>
       <c r="P22" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="9">
         <v>1</v>
@@ -3410,25 +3427,25 @@
         <v>8</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="12"/>
       <c r="M23" s="53" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N23" s="19">
         <v>44344</v>
       </c>
       <c r="O23" s="20"/>
       <c r="P23" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B24" s="9">
         <v>1</v>
@@ -3447,7 +3464,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M24" s="54" t="s">
         <v>5</v>
@@ -3457,12 +3474,12 @@
       </c>
       <c r="O24" s="8"/>
       <c r="P24" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B25" s="9">
         <v>1</v>
@@ -3489,12 +3506,12 @@
       </c>
       <c r="O25" s="17"/>
       <c r="P25" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B26" s="9">
         <v>1</v>
@@ -3517,12 +3534,12 @@
       <c r="N26" s="19"/>
       <c r="O26" s="20"/>
       <c r="P26" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="57">
@@ -3542,23 +3559,23 @@
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M27" s="54"/>
       <c r="N27" s="11"/>
       <c r="O27" s="8"/>
       <c r="P27" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="57"/>
@@ -3572,25 +3589,25 @@
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="12"/>
       <c r="M28" s="55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N28" s="7">
         <v>44358</v>
       </c>
       <c r="O28" s="17"/>
       <c r="P28" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="57">
@@ -3606,7 +3623,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
@@ -3617,40 +3634,40 @@
       <c r="N29" s="7"/>
       <c r="O29" s="20"/>
       <c r="P29" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="57"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M30" s="54"/>
       <c r="N30" s="11"/>
       <c r="O30" s="8"/>
       <c r="P30" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="57">
@@ -3666,7 +3683,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
@@ -3675,12 +3692,12 @@
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
       <c r="P31" s="39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="57">
@@ -3696,7 +3713,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
@@ -3705,12 +3722,12 @@
       <c r="N32" s="14"/>
       <c r="O32" s="15"/>
       <c r="P32" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="57"/>
@@ -3722,7 +3739,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
@@ -3732,7 +3749,7 @@
     </row>
     <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="57">
@@ -3743,12 +3760,12 @@
         <v>8</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
@@ -3756,7 +3773,7 @@
     </row>
     <row r="35" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="57">
@@ -3768,17 +3785,17 @@
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="57">
@@ -3794,7 +3811,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
@@ -3802,7 +3819,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="57">
@@ -3816,7 +3833,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
@@ -3824,7 +3841,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>20</v>
+        <v>406</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="57">
@@ -3838,41 +3855,31 @@
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="12"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="50" t="s">
-        <v>19</v>
+      <c r="A39" s="52" t="s">
+        <v>405</v>
       </c>
       <c r="B39" s="9"/>
-      <c r="C39" s="57">
-        <v>1</v>
-      </c>
+      <c r="C39" s="57"/>
       <c r="D39" s="51"/>
-      <c r="E39" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
-      <c r="I39" s="11" t="s">
-        <v>309</v>
-      </c>
+      <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
-      <c r="L39" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="L39" s="12"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="57">
@@ -3888,131 +3895,139 @@
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
       <c r="L40" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>15</v>
+      <c r="A41" s="50" t="s">
+        <v>17</v>
       </c>
       <c r="B41" s="9"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
+      <c r="C41" s="57">
+        <v>1</v>
+      </c>
+      <c r="D41" s="51"/>
+      <c r="E41" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="F41" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
-      <c r="L41" s="12"/>
-    </row>
-    <row r="42" spans="1:14" ht="24" x14ac:dyDescent="0.2">
-      <c r="A42" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="9">
-        <v>1</v>
-      </c>
-      <c r="C42" s="57">
-        <v>1</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="L41" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
       <c r="F42" s="9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G42" s="11"/>
-      <c r="H42" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="H42" s="11"/>
       <c r="I42" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
-      <c r="L42" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="L42" s="12"/>
     </row>
     <row r="43" spans="1:14" ht="24" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
+      <c r="A43" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="9">
+        <v>1</v>
+      </c>
+      <c r="C43" s="57">
+        <v>1</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="F43" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
+      <c r="H43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>309</v>
+      </c>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="24" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="57">
-        <v>1</v>
-      </c>
+      <c r="C44" s="57"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="E44" s="9"/>
       <c r="F44" s="9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
-      <c r="L44" s="6" t="s">
-        <v>10</v>
+      <c r="L44" s="12" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>385</v>
+        <v>11</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="57">
         <v>1</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
+      <c r="E45" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
-      <c r="L45" s="6"/>
+      <c r="L45" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>9</v>
+        <v>384</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="57">
@@ -4020,48 +4035,44 @@
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
       <c r="L46" s="6"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="57">
         <v>1</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="8"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
-      <c r="L47" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="L47" s="6"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="57">
         <v>1</v>
       </c>
       <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
+      <c r="E48" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="F48" s="9" t="s">
         <v>8</v>
       </c>
@@ -4070,23 +4081,23 @@
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
-      <c r="L48" s="6"/>
+      <c r="L48" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="57">
         <v>1</v>
       </c>
-      <c r="D49" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -4096,54 +4107,58 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="9">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B50" s="9"/>
       <c r="C50" s="57">
         <v>1</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>8</v>
+      <c r="D50" s="51" t="s">
+        <v>1</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="7">
-        <v>44344</v>
-      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
-      <c r="L50" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="B51" s="9">
+        <v>1</v>
+      </c>
+      <c r="C51" s="57">
+        <v>1</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="7">
+        <v>44344</v>
+      </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
         <v>389</v>
       </c>
       <c r="B52" s="9"/>
@@ -4156,11 +4171,13 @@
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
-      <c r="L52" s="6"/>
+      <c r="L52" s="6" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
-        <v>391</v>
+      <c r="A53" s="13" t="s">
+        <v>388</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="57"/>
@@ -4175,8 +4192,8 @@
       <c r="L53" s="6"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="13" t="s">
-        <v>392</v>
+      <c r="A54" s="10" t="s">
+        <v>390</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="57"/>
@@ -4191,8 +4208,8 @@
       <c r="L54" s="6"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="10" t="s">
-        <v>393</v>
+      <c r="A55" s="13" t="s">
+        <v>391</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="57"/>
@@ -4207,8 +4224,8 @@
       <c r="L55" s="6"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
-        <v>394</v>
+      <c r="A56" s="10" t="s">
+        <v>392</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="57"/>
@@ -4223,8 +4240,8 @@
       <c r="L56" s="6"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="10" t="s">
-        <v>385</v>
+      <c r="A57" s="13" t="s">
+        <v>393</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="57"/>
@@ -4240,7 +4257,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>316</v>
+        <v>384</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="57"/>
@@ -4252,31 +4269,29 @@
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
-      <c r="L58" s="6" t="s">
-        <v>318</v>
-      </c>
+      <c r="L58" s="6"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>386</v>
+        <v>315</v>
       </c>
       <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
+      <c r="C59" s="57"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
       <c r="L59" s="6" t="s">
-        <v>388</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -4289,28 +4304,30 @@
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="58" t="s">
+      <c r="A61" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="61"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="6" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="63" t="s">
-        <v>400</v>
+      <c r="A62" s="58" t="s">
+        <v>394</v>
       </c>
       <c r="B62" s="59"/>
       <c r="C62" s="59"/>
@@ -4322,10 +4339,11 @@
       <c r="I62" s="60"/>
       <c r="J62" s="60"/>
       <c r="K62" s="60"/>
+      <c r="L62" s="61"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="63" t="s">
-        <v>401</v>
+      <c r="A63" s="62" t="s">
+        <v>399</v>
       </c>
       <c r="B63" s="59"/>
       <c r="C63" s="59"/>
@@ -4337,11 +4355,10 @@
       <c r="I63" s="60"/>
       <c r="J63" s="60"/>
       <c r="K63" s="60"/>
-      <c r="L63" s="61"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="63" t="s">
-        <v>402</v>
+      <c r="A64" s="62" t="s">
+        <v>400</v>
       </c>
       <c r="B64" s="59"/>
       <c r="C64" s="59"/>
@@ -4356,8 +4373,8 @@
       <c r="L64" s="61"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="63" t="s">
-        <v>403</v>
+      <c r="A65" s="62" t="s">
+        <v>401</v>
       </c>
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
@@ -4372,8 +4389,8 @@
       <c r="L65" s="61"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="63" t="s">
-        <v>405</v>
+      <c r="A66" s="62" t="s">
+        <v>402</v>
       </c>
       <c r="B66" s="59"/>
       <c r="C66" s="59"/>
@@ -4388,7 +4405,7 @@
       <c r="L66" s="61"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="63" t="s">
+      <c r="A67" s="62" t="s">
         <v>404</v>
       </c>
       <c r="B67" s="59"/>
@@ -4404,8 +4421,8 @@
       <c r="L67" s="61"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="58" t="s">
-        <v>387</v>
+      <c r="A68" s="62" t="s">
+        <v>403</v>
       </c>
       <c r="B68" s="59"/>
       <c r="C68" s="59"/>
@@ -4417,30 +4434,36 @@
       <c r="I68" s="60"/>
       <c r="J68" s="60"/>
       <c r="K68" s="60"/>
-      <c r="L68" s="61" t="s">
-        <v>397</v>
-      </c>
+      <c r="L68" s="61"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3">
-        <f>SUM($B$2:$B58)</f>
-        <v>22</v>
-      </c>
-      <c r="C69" s="3">
-        <f>SUM(C2:C58)</f>
-        <v>39</v>
-      </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="5"/>
+      <c r="A69" s="58" t="s">
+        <v>386</v>
+      </c>
+      <c r="B69" s="59"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="60"/>
+      <c r="K69" s="60"/>
+      <c r="L69" s="61" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
+      <c r="B70" s="3">
+        <f>SUM($B$2:$B59)</f>
+        <v>22</v>
+      </c>
+      <c r="C70" s="3">
+        <f>SUM(C2:C59)</f>
+        <v>39</v>
+      </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -4451,10 +4474,6 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
-      <c r="B71" s="3">
-        <f>B69/C69*100</f>
-        <v>56.410256410256409</v>
-      </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -4465,6 +4484,10 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
+      <c r="B72" s="3">
+        <f>B70/C70*100</f>
+        <v>56.410256410256409</v>
+      </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -4513,8 +4536,18 @@
       <c r="K76" s="4"/>
       <c r="L76" s="5"/>
     </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="3"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="5"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G47:K47 D27:D41 J28:K42 D2:K16 D18:K18 D20:K26 F28:H42 F27 F43:K46 D43:D47">
+  <conditionalFormatting sqref="G48:K48 D2:K16 D18:K18 D20:K26 F27 F44:K47 D44:D48 D27:D38 D40:D42 J28:K43 F28:H38 F40:H43 D39:H39">
     <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",D2)))</formula>
     </cfRule>
@@ -4522,20 +4555,20 @@
       <formula>NOT(ISERROR(SEARCH("Y",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
+  <conditionalFormatting sqref="F51">
     <cfRule type="containsText" dxfId="54" priority="53" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",F50)))</formula>
+      <formula>NOT(ISERROR(SEARCH("IP",F51)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="53" priority="54" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",F50)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",F51)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
+  <conditionalFormatting sqref="F48">
     <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",F47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("IP",F48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",F47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",F48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:I17">
@@ -4570,7 +4603,7 @@
       <formula>NOT(ISERROR(SEARCH("Y",J19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43 E46 E41 E35 E33 E30">
+  <conditionalFormatting sqref="E44 E47 E42 E35 E33 E30">
     <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",E30)))</formula>
     </cfRule>
@@ -4578,52 +4611,52 @@
       <formula>NOT(ISERROR(SEARCH("Y",E30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
+  <conditionalFormatting sqref="E50">
     <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",E49)))</formula>
+      <formula>NOT(ISERROR(SEARCH("IP",E50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",E49)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",E50)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
+  <conditionalFormatting sqref="E48">
     <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",E47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("IP",E48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",E47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",E48)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44:E45">
+  <conditionalFormatting sqref="E45:E46">
     <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",E44)))</formula>
+      <formula>NOT(ISERROR(SEARCH("IP",E45)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",E44)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",E45)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
+  <conditionalFormatting sqref="E43">
     <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",E42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("IP",E43)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",E42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",E43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",E41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",E41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",E40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",E40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",E39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",E39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
@@ -4698,44 +4731,44 @@
       <formula>NOT(ISERROR(SEARCH("Y",E27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
+  <conditionalFormatting sqref="E51">
     <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",E50)))</formula>
+      <formula>NOT(ISERROR(SEARCH("IP",E51)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",E50)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",E51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",D51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="IP">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",D50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",D50)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",D49)))</formula>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="IP">
+      <formula>NOT(ISERROR(SEARCH("IP",F49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",D49)))</formula>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",F49)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",F48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",F48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="IP">
-      <formula>NOT(ISERROR(SEARCH("IP",D42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("IP",D43)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",D42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",D43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4744,6 +4777,92 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF457F00-B7BA-42A3-AD90-830975C65D00}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="48.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="B7" s="31"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="B8" s="31"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{522DBF1D-01CB-49E5-B230-4F6B4A2C6B30}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{721BDBA4-1C8B-48A7-A004-8ED7DEBFA025}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{0FC5D6EB-2B1B-49AA-98E9-779A3451EB21}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{0A0FCFF5-5D1D-4486-831F-3038E185D596}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{9AD6114E-F8AE-4D3A-9E27-9EAEFFE5E8C6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0431B7A2-E522-4260-92BF-E7619809AD3B}">
   <dimension ref="A1:G37"/>
   <sheetViews>
@@ -4765,360 +4884,360 @@
   <sheetData>
     <row r="1" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>179</v>
-      </c>
       <c r="C7" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>171</v>
-      </c>
       <c r="C9" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>163</v>
-      </c>
       <c r="C11" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>158</v>
-      </c>
       <c r="C12" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>154</v>
-      </c>
       <c r="C13" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>150</v>
-      </c>
       <c r="C14" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>146</v>
-      </c>
       <c r="C15" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>142</v>
-      </c>
       <c r="C16" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G19" s="29"/>
     </row>
@@ -5168,12 +5287,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4EABE2-C50A-4D03-9536-25617A158ADD}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A17" sqref="A17:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5184,50 +5303,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5239,15 +5358,16 @@
     <hyperlink ref="B6" r:id="rId5" xr:uid="{DE5C08BE-AA1B-42BE-ABCD-900996705658}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F25844-7967-44FB-93A5-72FA0CC1620D}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A7" activeCellId="1" sqref="A2:B3 A7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5259,86 +5379,88 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>398</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>399</v>
       </c>
       <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="29"/>
+        <v>103</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>407</v>
+      </c>
       <c r="C8" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="29"/>
     </row>
@@ -5353,12 +5475,13 @@
     <hyperlink ref="C8" r:id="rId7" display="https://services6.arcgis.com/ubm4tcTYICKBpist/arcgis/rest/services/British_Columbia_Bans_and_Prohibition_Areas/FeatureServer/0/query?f=json&amp;where=1%3D1&amp;returnGeometry=false&amp;spatialRel=esriSpatialRelIntersects&amp;outFields=*&amp;orderByFields=OBJECTID%20ASC&amp;resultOffset=0&amp;resultRecordCount=50&amp;cacheHint=true&amp;quantizationParameters=%7B%22mode%22%3A%22edit%22%7D" xr:uid="{9C73D11A-61B2-4DEE-B6FB-54F56820A334}"/>
     <hyperlink ref="C7" r:id="rId8" xr:uid="{71CAC8A3-BBFB-4DB2-AC7C-29624B8B76F7}"/>
     <hyperlink ref="B3" r:id="rId9" xr:uid="{35DB0182-AEDA-4F25-A991-163B02C2EE84}"/>
+    <hyperlink ref="B8" r:id="rId10" xr:uid="{3DD858B5-41B0-4672-B684-7853CBA3C450}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A387640-AE1F-4ED1-88F0-2E6AAB378BE5}">
   <dimension ref="A1:E54"/>
   <sheetViews>
@@ -5377,782 +5500,782 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D3" s="41">
         <v>10</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D4" s="41">
         <v>50</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D5" s="41">
         <v>50</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D6" s="41">
         <v>7</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D7" s="41">
         <v>75</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D8" s="41">
         <v>75</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D9" s="41">
         <v>90</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D10" s="41">
         <v>19</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D11" s="41">
         <v>19</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D12" s="41">
         <v>1</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D13" s="41">
         <v>38</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="24" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B14" s="41"/>
       <c r="C14" s="41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D14" s="41">
         <v>4000</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="62" t="s">
-        <v>268</v>
-      </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
+      <c r="A17" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
     </row>
     <row r="18" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D19" s="45">
         <v>38</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D20" s="45">
         <v>75</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D21" s="45">
         <v>75</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D22" s="45">
         <v>75</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D23" s="45">
         <v>1</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D24" s="45">
         <v>38</v>
       </c>
       <c r="E24" s="45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B25" s="45"/>
       <c r="C25" s="45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D25" s="45">
         <v>4000</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D26" s="45">
         <v>19</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D27" s="45">
         <v>19</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
-        <v>257</v>
-      </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
+      <c r="A30" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
     </row>
     <row r="31" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D32" s="45">
         <v>38</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D33" s="45">
         <v>75</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D34" s="45">
         <v>1</v>
       </c>
       <c r="E34" s="45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D35" s="45">
         <v>38</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B36" s="45"/>
       <c r="C36" s="45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D36" s="45">
         <v>4000</v>
       </c>
       <c r="E36" s="45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D37" s="45">
         <v>19</v>
       </c>
       <c r="E37" s="45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D38" s="45">
         <v>19</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
+      <c r="A41" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
     </row>
     <row r="42" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C43" s="45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D43" s="45">
         <v>10</v>
       </c>
       <c r="E43" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D44" s="45">
         <v>50</v>
       </c>
       <c r="E44" s="45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D45" s="45">
         <v>7</v>
       </c>
       <c r="E45" s="45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C46" s="45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D46" s="45">
         <v>75</v>
       </c>
       <c r="E46" s="45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D47" s="45">
         <v>75</v>
       </c>
       <c r="E47" s="45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D48" s="45">
         <v>90</v>
       </c>
       <c r="E48" s="45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B49" s="45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D49" s="45">
         <v>19</v>
       </c>
       <c r="E49" s="45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B50" s="45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D50" s="45">
         <v>19</v>
       </c>
       <c r="E50" s="45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B51" s="45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D51" s="45">
         <v>1</v>
       </c>
       <c r="E51" s="45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B52" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C52" s="45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D52" s="45">
         <v>38</v>
       </c>
       <c r="E52" s="45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B53" s="45"/>
       <c r="C53" s="45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D53" s="45">
         <v>4000</v>
       </c>
       <c r="E53" s="45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B54" s="46"/>
       <c r="C54" s="46"/>
@@ -6176,7 +6299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93154698-3716-4ED5-94DB-E99FEE875E8A}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -6193,66 +6316,66 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B4" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>296</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>297</v>
       </c>
       <c r="D4" s="31"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B5" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="D5" s="31" t="s">
         <v>301</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -6266,7 +6389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E419D0F2-458F-41B6-A695-345743DAC448}">
   <dimension ref="A1:E61"/>
   <sheetViews>
@@ -6284,27 +6407,27 @@
   <sheetData>
     <row r="1" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="C1" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>321</v>
-      </c>
       <c r="E1" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" t="s">
         <v>322</v>
-      </c>
-      <c r="B2" t="s">
-        <v>323</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -6312,10 +6435,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -6323,10 +6446,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -6334,24 +6457,24 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>326</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -6359,10 +6482,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -6370,10 +6493,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -6381,10 +6504,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -6392,10 +6515,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -6403,21 +6526,21 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -6425,10 +6548,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -6436,10 +6559,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -6447,10 +6570,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -6458,10 +6581,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -6469,10 +6592,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -6480,10 +6603,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
@@ -6491,10 +6614,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
@@ -6502,10 +6625,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
@@ -6513,10 +6636,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -6524,10 +6647,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -6535,10 +6658,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
@@ -6546,10 +6669,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
@@ -6557,10 +6680,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -6568,10 +6691,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
@@ -6579,10 +6702,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -6590,10 +6713,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
@@ -6601,10 +6724,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -6612,10 +6735,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
@@ -6623,10 +6746,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -6634,10 +6757,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -6645,10 +6768,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B33" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
@@ -6656,10 +6779,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
@@ -6667,10 +6790,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
@@ -6678,10 +6801,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
@@ -6689,10 +6812,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B37" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -6700,10 +6823,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -6711,10 +6834,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
@@ -6722,10 +6845,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
@@ -6733,10 +6856,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B41" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -6744,10 +6867,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
@@ -6755,10 +6878,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B43" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
@@ -6766,10 +6889,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -6777,10 +6900,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
@@ -6788,10 +6911,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B46" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -6799,10 +6922,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
@@ -6810,10 +6933,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -6821,10 +6944,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B49" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
@@ -6832,10 +6955,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B50" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
@@ -6843,10 +6966,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B51" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
@@ -6854,10 +6977,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B52" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
@@ -6865,10 +6988,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B53" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
@@ -6876,10 +6999,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B54" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>
@@ -6887,10 +7010,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B55" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>4</v>
@@ -6898,10 +7021,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B56" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>8</v>
@@ -6909,10 +7032,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>4</v>
@@ -6920,10 +7043,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B58" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>8</v>
@@ -6931,10 +7054,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B59" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>8</v>
@@ -6942,10 +7065,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B60" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>8</v>
@@ -6953,10 +7076,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>4</v>

--- a/docs/BC Parks Datasets.xlsx
+++ b/docs/BC Parks Datasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rofiddle\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0D82B1-37AB-4C1B-BC00-76662FBC0A24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA08221-C706-4653-B66B-E11ED1A8656C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21825" yWindow="-16320" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{18B4C128-B343-4925-877B-67BA878CF356}"/>
+    <workbookView xWindow="-21825" yWindow="-16320" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{18B4C128-B343-4925-877B-67BA878CF356}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasets" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="414">
   <si>
     <t>A view created from PublicAdvisories + ProtectedArea</t>
   </si>
@@ -1273,6 +1273,15 @@
   </si>
   <si>
     <t>Resource</t>
+  </si>
+  <si>
+    <t>https://services6.arcgis.com/ubm4tcTYICKBpist/arcgis/rest/services/British_Columbia_Bans_and_Prohibition_Areas/FeatureServer</t>
+  </si>
+  <si>
+    <t>https://governmentofbc.maps.arcgis.com/home/item.html?id=f5eab6cf76f84b888d9ee37808140532</t>
+  </si>
+  <si>
+    <t>British Columbia Wildfire Bans and Prohibitions (deprecated)</t>
   </si>
 </sst>
 </file>
@@ -1763,10 +1772,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2572,8 +2581,8 @@
   <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3801,7 +3810,9 @@
       <c r="C36" s="57">
         <v>1</v>
       </c>
-      <c r="D36" s="51"/>
+      <c r="D36" s="51" t="s">
+        <v>1</v>
+      </c>
       <c r="E36" s="9" t="s">
         <v>8</v>
       </c>
@@ -3825,7 +3836,9 @@
       <c r="C37" s="57">
         <v>1</v>
       </c>
-      <c r="D37" s="51"/>
+      <c r="D37" s="51" t="s">
+        <v>1</v>
+      </c>
       <c r="E37" s="9" t="s">
         <v>8</v>
       </c>
@@ -3847,7 +3860,9 @@
       <c r="C38" s="57">
         <v>1</v>
       </c>
-      <c r="D38" s="51"/>
+      <c r="D38" s="51" t="s">
+        <v>1</v>
+      </c>
       <c r="E38" s="9" t="s">
         <v>8</v>
       </c>
@@ -3867,7 +3882,9 @@
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="57"/>
-      <c r="D39" s="51"/>
+      <c r="D39" s="51" t="s">
+        <v>1</v>
+      </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="11"/>
@@ -4089,7 +4106,9 @@
       <c r="A49" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="9"/>
+      <c r="B49" s="9">
+        <v>1</v>
+      </c>
       <c r="C49" s="57">
         <v>1</v>
       </c>
@@ -4109,7 +4128,9 @@
       <c r="A50" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="9"/>
+      <c r="B50" s="9">
+        <v>1</v>
+      </c>
       <c r="C50" s="57">
         <v>1</v>
       </c>
@@ -4458,7 +4479,7 @@
       <c r="A70" s="3"/>
       <c r="B70" s="3">
         <f>SUM($B$2:$B59)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C70" s="3">
         <f>SUM(C2:C59)</f>
@@ -4486,7 +4507,7 @@
       <c r="A72" s="3"/>
       <c r="B72" s="3">
         <f>B70/C70*100</f>
-        <v>56.410256410256409</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -4547,7 +4568,7 @@
       <c r="L77" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G48:K48 D2:K16 D18:K18 D20:K26 F27 F44:K47 D44:D48 D27:D38 D40:D42 J28:K43 F28:H38 F40:H43 D39:H39">
+  <conditionalFormatting sqref="G48:K48 D2:K16 D18:K18 D20:K26 F27 F44:K47 D44:D48 J28:K43 F28:H38 F40:H43 D39:H39 D27:D42">
     <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="IP">
       <formula>NOT(ISERROR(SEARCH("IP",D2)))</formula>
     </cfRule>
@@ -4780,8 +4801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF457F00-B7BA-42A3-AD90-830975C65D00}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4831,7 +4852,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="63" t="s">
         <v>103</v>
       </c>
       <c r="B6" s="30" t="s">
@@ -5292,7 +5313,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B24"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5364,10 +5385,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F25844-7967-44FB-93A5-72FA0CC1620D}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" activeCellId="1" sqref="A2:B3 A7:B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5446,7 +5467,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
-        <v>103</v>
+        <v>413</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>407</v>
@@ -5463,6 +5484,17 @@
         <v>100</v>
       </c>
       <c r="C9" s="29"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>411</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5476,6 +5508,8 @@
     <hyperlink ref="C7" r:id="rId8" xr:uid="{71CAC8A3-BBFB-4DB2-AC7C-29624B8B76F7}"/>
     <hyperlink ref="B3" r:id="rId9" xr:uid="{35DB0182-AEDA-4F25-A991-163B02C2EE84}"/>
     <hyperlink ref="B8" r:id="rId10" xr:uid="{3DD858B5-41B0-4672-B684-7853CBA3C450}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{4D3E21D7-0A2B-4357-9268-55169A493133}"/>
+    <hyperlink ref="C12" r:id="rId12" xr:uid="{D10CF43B-F07A-4D2C-BB57-E6317F0C96E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5485,7 +5519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A387640-AE1F-4ED1-88F0-2E6AAB378BE5}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -5500,13 +5534,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -5733,13 +5767,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="64" t="s">
         <v>267</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
     </row>
     <row r="18" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
@@ -5915,13 +5949,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
     </row>
     <row r="31" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
@@ -6063,13 +6097,13 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="63" t="s">
+      <c r="A41" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
     </row>
     <row r="42" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="40" t="s">
